--- a/FlujosDeEfectivoTulum.xlsx
+++ b/FlujosDeEfectivoTulum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David J Delgado H\Documents\Tulum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281EDE15-C63D-4586-AF8A-4B5868F7C0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAB80EE5-DC5D-40FA-9870-990694AA3B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{12103D3B-DDB2-4D47-8DF4-8F98B116159E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{12103D3B-DDB2-4D47-8DF4-8F98B116159E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="LOGIT" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1571,8 +1572,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1663,7 +1664,7 @@
         <v>38</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" ref="K5:K7" si="0">$F$8*L5</f>
+        <f>$F$8*L5</f>
         <v>58400</v>
       </c>
       <c r="L5" s="15">
@@ -1696,7 +1697,7 @@
         <v>41</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="0"/>
+        <f>$F$8*L6</f>
         <v>14600</v>
       </c>
       <c r="L6" s="15">
@@ -1721,7 +1722,7 @@
         <v>42</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="0"/>
+        <f>$F$8*L7</f>
         <v>29200</v>
       </c>
       <c r="L7" s="15">
@@ -2012,7 +2013,7 @@
       </c>
       <c r="B24" s="71">
         <f ca="1">NORMINV(RAND(), 4.205, 1.68)/100</f>
-        <v>2.1519176509338846E-2</v>
+        <v>7.5727357869564041E-2</v>
       </c>
       <c r="E24" s="29" t="s">
         <v>23</v>
@@ -2128,7 +2129,7 @@
       </c>
       <c r="K29" s="33">
         <f ca="1">NORMINV(RAND(),30.2226,3.64451 )/100</f>
-        <v>0.2681173866307841</v>
+        <v>0.31363339208801855</v>
       </c>
       <c r="L29" s="2" t="str">
         <f>IF(L30="Si","No","Si")</f>
@@ -2148,7 +2149,7 @@
       </c>
       <c r="K30" s="33">
         <f ca="1">NORMINV(RAND(),82.0097,5.52518 )/100</f>
-        <v>0.80769413373406707</v>
+        <v>0.82153635865486918</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>19</v>
@@ -2170,7 +2171,7 @@
       </c>
       <c r="K31" s="35">
         <f ca="1">IF(L30="Si",K28*K30,K28*K29)</f>
-        <v>0.73118628640800976</v>
+        <v>0.743717323359676</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2179,7 +2180,7 @@
       </c>
       <c r="F32" s="110">
         <f ca="1">FLUJO_ANUAL!W29</f>
-        <v>873019.01160352747</v>
+        <v>3277906.4522032505</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2194,7 +2195,7 @@
       </c>
       <c r="F33" s="111">
         <f ca="1">FLUJO_ANUAL!W32</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>139</v>
@@ -2213,14 +2214,14 @@
       </c>
       <c r="F34" s="112">
         <f ca="1">FLUJO_ANUAL!W8/FLUJO_ANUAL!W25</f>
-        <v>1.6581033082036714</v>
+        <v>2.1374403992166195</v>
       </c>
       <c r="J34" s="43" t="s">
         <v>138</v>
       </c>
       <c r="K34" s="43">
         <f ca="1">FLUJOS_DIARIOS!AH6</f>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2246,7 +2247,7 @@
       </c>
       <c r="K35" s="113">
         <f ca="1">FLUJOS_DIARIOS!AH27</f>
-        <v>6953.4742752963775</v>
+        <v>6328.5926041345374</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2265,7 +2266,7 @@
       </c>
       <c r="K36" s="43">
         <f ca="1">FLUJO_MENSUAL!O6</f>
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2274,7 +2275,7 @@
       </c>
       <c r="K37" s="55">
         <f ca="1">FLUJO_MENSUAL!O28</f>
-        <v>15681.9460422913</v>
+        <v>-3231.052056821487</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2460,131 +2461,131 @@
       </c>
       <c r="C4" s="42">
         <f ca="1">IF($C$1="Si",NORMINV(RAND(),82.0097,5.52518 )/100,NORMINV(RAND(),30.2226,3.64451 )/100)</f>
-        <v>0.78461340371241883</v>
+        <v>0.84544137851684609</v>
       </c>
       <c r="D4" s="37">
         <f t="shared" ref="D4:AG4" ca="1" si="0">IF($C$1="Si",NORMINV(RAND(),82.0097,5.52518 )/100,NORMINV(RAND(),30.2226,3.64451 )/100)</f>
-        <v>0.82569747240678593</v>
+        <v>0.8730706192386013</v>
       </c>
       <c r="E4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83535831652576709</v>
+        <v>0.73721094353181682</v>
       </c>
       <c r="F4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87407280931320386</v>
+        <v>0.85385251533705608</v>
       </c>
       <c r="G4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86018775869076303</v>
+        <v>0.86299974060711238</v>
       </c>
       <c r="H4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80473305392202543</v>
+        <v>0.78846246483240379</v>
       </c>
       <c r="I4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87758787400129445</v>
+        <v>0.88915578316255262</v>
       </c>
       <c r="J4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76954134630258997</v>
+        <v>0.82419250662532928</v>
       </c>
       <c r="K4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84828815030563409</v>
+        <v>0.70498128516301339</v>
       </c>
       <c r="L4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79480884861538825</v>
+        <v>0.85392026177981861</v>
       </c>
       <c r="M4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76477754660560082</v>
+        <v>0.72904583992260119</v>
       </c>
       <c r="N4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78582833664457075</v>
+        <v>0.86159829240518959</v>
       </c>
       <c r="O4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83702809337655171</v>
+        <v>0.81331436868134888</v>
       </c>
       <c r="P4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77422562000816442</v>
+        <v>0.75193892996333223</v>
       </c>
       <c r="Q4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8879096082467659</v>
+        <v>0.84770298311114711</v>
       </c>
       <c r="R4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86870504470022103</v>
+        <v>0.78351793271181858</v>
       </c>
       <c r="S4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86064406933158522</v>
+        <v>0.76580835464043229</v>
       </c>
       <c r="T4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79127757974291313</v>
+        <v>0.83050423288072261</v>
       </c>
       <c r="U4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75218900524174981</v>
+        <v>0.79232927175281331</v>
       </c>
       <c r="V4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76620476414779859</v>
+        <v>0.8441730521696077</v>
       </c>
       <c r="W4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80397715061766317</v>
+        <v>0.90747447591321773</v>
       </c>
       <c r="X4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79605663150870054</v>
+        <v>0.82451619782862029</v>
       </c>
       <c r="Y4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79943120852076832</v>
+        <v>0.80680679719559678</v>
       </c>
       <c r="Z4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78865360312695199</v>
+        <v>0.84098486866507016</v>
       </c>
       <c r="AA4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78878035738207031</v>
+        <v>0.80418805740887644</v>
       </c>
       <c r="AB4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83407935249755516</v>
+        <v>0.77352946873430095</v>
       </c>
       <c r="AC4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87170794488317538</v>
+        <v>0.78883395607509854</v>
       </c>
       <c r="AD4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8241681092525398</v>
+        <v>0.89178572308255422</v>
       </c>
       <c r="AE4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77453601081841006</v>
+        <v>0.75785102957758776</v>
       </c>
       <c r="AF4" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80702647049326703</v>
+        <v>0.78213568911149334</v>
       </c>
       <c r="AG4" s="38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76360687955977924</v>
+        <v>0.82079481043692593</v>
       </c>
       <c r="AH4" s="36">
         <f ca="1">AVERAGE(C4:AG4)</f>
-        <v>0.8134097555000861</v>
+        <v>0.81458457519557748</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -2593,131 +2594,131 @@
       </c>
       <c r="C5" s="36">
         <f ca="1">C4*DATOS!$K$28</f>
-        <v>0.71029185054762578</v>
+        <v>0.76535796920488108</v>
       </c>
       <c r="D5" s="36">
         <f ca="1">D4*DATOS!$K$28</f>
-        <v>0.74748428065763139</v>
+        <v>0.79037006360529016</v>
       </c>
       <c r="E5" s="36">
         <f ca="1">E4*DATOS!$K$28</f>
-        <v>0.7562300130331624</v>
+        <v>0.66737953092259583</v>
       </c>
       <c r="F5" s="36">
         <f ca="1">F4*DATOS!$K$28</f>
-        <v>0.79127732244043347</v>
+        <v>0.77297237128999507</v>
       </c>
       <c r="G5" s="36">
         <f ca="1">G4*DATOS!$K$28</f>
-        <v>0.77870751639978131</v>
+        <v>0.78125313673919927</v>
       </c>
       <c r="H5" s="36">
         <f ca="1">H4*DATOS!$K$28</f>
-        <v>0.72850569129025777</v>
+        <v>0.71377631402078245</v>
       </c>
       <c r="I5" s="36">
         <f ca="1">I4*DATOS!$K$28</f>
-        <v>0.794459426888669</v>
+        <v>0.80493157988304798</v>
       </c>
       <c r="J5" s="36">
         <f ca="1">J4*DATOS!$K$28</f>
-        <v>0.69664747549803607</v>
+        <v>0.74612187093474902</v>
       </c>
       <c r="K5" s="36">
         <f ca="1">K4*DATOS!$K$28</f>
-        <v>0.7679350839882606</v>
+        <v>0.6382027878578217</v>
       </c>
       <c r="L5" s="36">
         <f ca="1">L4*DATOS!$K$28</f>
-        <v>0.71952154429619297</v>
+        <v>0.77303370053312315</v>
       </c>
       <c r="M5" s="36">
         <f ca="1">M4*DATOS!$K$28</f>
-        <v>0.69233492095027704</v>
+        <v>0.65998785685092964</v>
       </c>
       <c r="N5" s="36">
         <f ca="1">N4*DATOS!$K$28</f>
-        <v>0.71139170043113065</v>
+        <v>0.77998443901866521</v>
       </c>
       <c r="O5" s="36">
         <f ca="1">O4*DATOS!$K$28</f>
-        <v>0.75774162229669739</v>
+        <v>0.73627415141557773</v>
       </c>
       <c r="P5" s="36">
         <f ca="1">P4*DATOS!$K$28</f>
-        <v>0.70088803705747582</v>
+        <v>0.68071242670003751</v>
       </c>
       <c r="Q5" s="36">
         <f ca="1">Q4*DATOS!$K$28</f>
-        <v>0.80380344737492093</v>
+        <v>0.76740534604663824</v>
       </c>
       <c r="R5" s="36">
         <f ca="1">R4*DATOS!$K$28</f>
-        <v>0.78641801282091917</v>
+        <v>0.70930014670907804</v>
       </c>
       <c r="S5" s="36">
         <f ca="1">S4*DATOS!$K$28</f>
-        <v>0.77912060356852031</v>
+        <v>0.6932680869440716</v>
       </c>
       <c r="T5" s="36">
         <f ca="1">T4*DATOS!$K$28</f>
-        <v>0.71632477058528787</v>
+        <v>0.75183572657484021</v>
       </c>
       <c r="U5" s="36">
         <f ca="1">U4*DATOS!$K$28</f>
-        <v>0.68093881390097366</v>
+        <v>0.71727684234493883</v>
       </c>
       <c r="V5" s="36">
         <f ca="1">V4*DATOS!$K$28</f>
-        <v>0.69362694704157901</v>
+        <v>0.76420978353278357</v>
       </c>
       <c r="W5" s="36">
         <f ca="1">W4*DATOS!$K$28</f>
-        <v>0.72782139000971613</v>
+        <v>0.82151505667801283</v>
       </c>
       <c r="X5" s="36">
         <f ca="1">X4*DATOS!$K$28</f>
-        <v>0.7206511324681244</v>
+        <v>0.7464149008813491</v>
       </c>
       <c r="Y5" s="36">
         <f ca="1">Y4*DATOS!$K$28</f>
-        <v>0.72370605676507882</v>
+        <v>0.73038300174707171</v>
       </c>
       <c r="Z5" s="36">
         <f ca="1">Z4*DATOS!$K$28</f>
-        <v>0.71394934697217327</v>
+        <v>0.76132359684439832</v>
       </c>
       <c r="AA5" s="36">
         <f ca="1">AA4*DATOS!$K$28</f>
-        <v>0.71406409458419062</v>
+        <v>0.72801231891089868</v>
       </c>
       <c r="AB5" s="36">
         <f ca="1">AB4*DATOS!$K$28</f>
-        <v>0.75507219732152131</v>
+        <v>0.7002578278688053</v>
       </c>
       <c r="AC5" s="36">
         <f ca="1">AC4*DATOS!$K$28</f>
-        <v>0.78913646692566475</v>
+        <v>0.71411261620602096</v>
       </c>
       <c r="AD5" s="36">
         <f ca="1">AD4*DATOS!$K$28</f>
-        <v>0.74609978457351023</v>
+        <v>0.80731240193345954</v>
       </c>
       <c r="AE5" s="36">
         <f ca="1">AE4*DATOS!$K$28</f>
-        <v>0.70116902647463231</v>
+        <v>0.68606450984794487</v>
       </c>
       <c r="AF5" s="36">
         <f ca="1">AF4*DATOS!$K$28</f>
-        <v>0.73058186675801828</v>
+        <v>0.70804883445754474</v>
       </c>
       <c r="AG5" s="39">
         <f ca="1">AG4*DATOS!$K$28</f>
-        <v>0.69127514392070122</v>
+        <v>0.74304601739740084</v>
       </c>
       <c r="AH5" s="36">
         <f ca="1">AVERAGE(C5:AG5)</f>
-        <v>0.73636050283358612</v>
+        <v>0.73742403915812749</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -2726,7 +2727,7 @@
       </c>
       <c r="C6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;C5,1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;D5,1,0))</f>
@@ -2738,7 +2739,7 @@
       </c>
       <c r="F6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;F5,1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;G5,1,0))</f>
@@ -2750,11 +2751,11 @@
       </c>
       <c r="I6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;I5,1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;J5,1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;K5,1,0))</f>
@@ -2766,23 +2767,23 @@
       </c>
       <c r="M6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;M5,1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;N5,1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;O5,1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;P5,1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;Q5,1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;R5,1,0))</f>
@@ -2790,7 +2791,7 @@
       </c>
       <c r="S6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;S5,1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;T5,1,0))</f>
@@ -2798,11 +2799,11 @@
       </c>
       <c r="U6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;U5,1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;V5,1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;W5,1,0))</f>
@@ -2810,7 +2811,7 @@
       </c>
       <c r="X6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;X5,1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;Y5,1,0))</f>
@@ -2830,19 +2831,19 @@
       </c>
       <c r="AC6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;AC5,1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;AD5,1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;AE5,1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;AF5,1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="34">
         <f ca="1">IF(DATOS!$G$4="Si",1,IF(RAND()&lt;AG5,1,0))</f>
@@ -2850,7 +2851,7 @@
       </c>
       <c r="AH6" s="34">
         <f ca="1">SUM(C6:AG6)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -2859,7 +2860,7 @@
       </c>
       <c r="C7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*C6)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*D6)</f>
@@ -2871,7 +2872,7 @@
       </c>
       <c r="F7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*F6)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*G6)</f>
@@ -2883,11 +2884,11 @@
       </c>
       <c r="I7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*I6)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*J6)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*K6)</f>
@@ -2899,23 +2900,23 @@
       </c>
       <c r="M7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*M6)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*N6)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*O6)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*P6)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*Q6)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*R6)</f>
@@ -2923,7 +2924,7 @@
       </c>
       <c r="S7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*S6)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*T6)</f>
@@ -2931,11 +2932,11 @@
       </c>
       <c r="U7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*U6)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*V6)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="W7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*W6)</f>
@@ -2943,7 +2944,7 @@
       </c>
       <c r="X7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*X6)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*Y6)</f>
@@ -2963,19 +2964,19 @@
       </c>
       <c r="AC7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*AC6)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*AD6)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*AE6)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*AF6)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="9">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,DATOS!$F$6*AG6)</f>
@@ -2983,7 +2984,7 @@
       </c>
       <c r="AH7" s="12">
         <f ca="1">SUM(C7:AG7)</f>
-        <v>22000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -4102,7 +4103,7 @@
       </c>
       <c r="C18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,C7*DATOS!$L$4)</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,D7*DATOS!$L$4)</f>
@@ -4114,7 +4115,7 @@
       </c>
       <c r="F18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,F7*DATOS!$L$4)</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,G7*DATOS!$L$4)</f>
@@ -4126,11 +4127,11 @@
       </c>
       <c r="I18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,I7*DATOS!$L$4)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,J7*DATOS!$L$4)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,K7*DATOS!$L$4)</f>
@@ -4142,23 +4143,23 @@
       </c>
       <c r="M18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,M7*DATOS!$L$4)</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,N7*DATOS!$L$4)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="O18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,O7*DATOS!$L$4)</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="P18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,P7*DATOS!$L$4)</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,Q7*DATOS!$L$4)</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="R18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,R7*DATOS!$L$4)</f>
@@ -4166,7 +4167,7 @@
       </c>
       <c r="S18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,S7*DATOS!$L$4)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="T18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,T7*DATOS!$L$4)</f>
@@ -4174,11 +4175,11 @@
       </c>
       <c r="U18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,U7*DATOS!$L$4)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="V18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,V7*DATOS!$L$4)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="W18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,W7*DATOS!$L$4)</f>
@@ -4186,7 +4187,7 @@
       </c>
       <c r="X18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,X7*DATOS!$L$4)</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,Y7*DATOS!$L$4)</f>
@@ -4206,19 +4207,19 @@
       </c>
       <c r="AC18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,AC7*DATOS!$L$4)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AD18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,AD7*DATOS!$L$4)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AE18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,AE7*DATOS!$L$4)</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,AF7*DATOS!$L$4)</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="78">
         <f ca="1">IF(DATOS!$G$4="Si",0,AG7*DATOS!$L$4)</f>
@@ -4226,7 +4227,7 @@
       </c>
       <c r="AH18" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>1210</v>
+        <v>1155</v>
       </c>
       <c r="AI18" s="19"/>
     </row>
@@ -4237,7 +4238,7 @@
       </c>
       <c r="C19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,C7*DATOS!$L$6)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,D7*DATOS!$L$6)</f>
@@ -4249,7 +4250,7 @@
       </c>
       <c r="F19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,F7*DATOS!$L$6)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,G7*DATOS!$L$6)</f>
@@ -4261,11 +4262,11 @@
       </c>
       <c r="I19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,I7*DATOS!$L$6)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,J7*DATOS!$L$6)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,K7*DATOS!$L$6)</f>
@@ -4277,23 +4278,23 @@
       </c>
       <c r="M19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,M7*DATOS!$L$6)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,N7*DATOS!$L$6)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,O7*DATOS!$L$6)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,P7*DATOS!$L$6)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,Q7*DATOS!$L$6)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,R7*DATOS!$L$6)</f>
@@ -4301,7 +4302,7 @@
       </c>
       <c r="S19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,S7*DATOS!$L$6)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="T19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,T7*DATOS!$L$6)</f>
@@ -4309,11 +4310,11 @@
       </c>
       <c r="U19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,U7*DATOS!$L$6)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="V19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,V7*DATOS!$L$6)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="W19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,W7*DATOS!$L$6)</f>
@@ -4321,7 +4322,7 @@
       </c>
       <c r="X19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,X7*DATOS!$L$6)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,Y7*DATOS!$L$6)</f>
@@ -4341,19 +4342,19 @@
       </c>
       <c r="AC19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,AC7*DATOS!$L$6)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AD19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,AD7*DATOS!$L$6)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,AE7*DATOS!$L$6)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,AF7*DATOS!$L$6)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="78">
         <f ca="1">IF(DATOS!$G$4="Si",0,AG7*DATOS!$L$6)</f>
@@ -4361,7 +4362,7 @@
       </c>
       <c r="AH19" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="AI19" s="19"/>
     </row>
@@ -4372,7 +4373,7 @@
       </c>
       <c r="C20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,C7*DATOS!$L$7)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,D7*DATOS!$L$7)</f>
@@ -4384,7 +4385,7 @@
       </c>
       <c r="F20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,F7*DATOS!$L$7)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,G7*DATOS!$L$7)</f>
@@ -4396,11 +4397,11 @@
       </c>
       <c r="I20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,I7*DATOS!$L$7)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,J7*DATOS!$L$7)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,K7*DATOS!$L$7)</f>
@@ -4412,23 +4413,23 @@
       </c>
       <c r="M20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,M7*DATOS!$L$7)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,N7*DATOS!$L$7)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,O7*DATOS!$L$7)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,P7*DATOS!$L$7)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,Q7*DATOS!$L$7)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,R7*DATOS!$L$7)</f>
@@ -4436,7 +4437,7 @@
       </c>
       <c r="S20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,S7*DATOS!$L$7)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,T7*DATOS!$L$7)</f>
@@ -4444,11 +4445,11 @@
       </c>
       <c r="U20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,U7*DATOS!$L$7)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,V7*DATOS!$L$7)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,W7*DATOS!$L$7)</f>
@@ -4456,7 +4457,7 @@
       </c>
       <c r="X20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,X7*DATOS!$L$7)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,Y7*DATOS!$L$7)</f>
@@ -4476,19 +4477,19 @@
       </c>
       <c r="AC20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,AC7*DATOS!$L$7)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AD20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,AD7*DATOS!$L$7)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AE20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,AE7*DATOS!$L$7)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,AF7*DATOS!$L$7)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="79">
         <f ca="1">IF(DATOS!$G$4="Si",0,AG7*DATOS!$L$7)</f>
@@ -4496,7 +4497,7 @@
       </c>
       <c r="AH20" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>1760</v>
+        <v>1680</v>
       </c>
       <c r="AI20" s="19"/>
     </row>
@@ -4509,7 +4510,7 @@
       </c>
       <c r="C21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,C7*DATOS!$L$11)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,D7*DATOS!$L$11)</f>
@@ -4521,7 +4522,7 @@
       </c>
       <c r="F21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,F7*DATOS!$L$11)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,G7*DATOS!$L$11)</f>
@@ -4533,11 +4534,11 @@
       </c>
       <c r="I21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,I7*DATOS!$L$11)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,J7*DATOS!$L$11)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,K7*DATOS!$L$11)</f>
@@ -4549,23 +4550,23 @@
       </c>
       <c r="M21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,M7*DATOS!$L$11)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,N7*DATOS!$L$11)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,O7*DATOS!$L$11)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,P7*DATOS!$L$11)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,Q7*DATOS!$L$11)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,R7*DATOS!$L$11)</f>
@@ -4573,7 +4574,7 @@
       </c>
       <c r="S21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,S7*DATOS!$L$11)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,T7*DATOS!$L$11)</f>
@@ -4581,11 +4582,11 @@
       </c>
       <c r="U21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,U7*DATOS!$L$11)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,V7*DATOS!$L$11)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,W7*DATOS!$L$11)</f>
@@ -4593,7 +4594,7 @@
       </c>
       <c r="X21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,X7*DATOS!$L$11)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,Y7*DATOS!$L$11)</f>
@@ -4613,19 +4614,19 @@
       </c>
       <c r="AC21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,AC7*DATOS!$L$11)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AD21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,AD7*DATOS!$L$11)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AE21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,AE7*DATOS!$L$11)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,AF7*DATOS!$L$11)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="76">
         <f ca="1">IF(DATOS!$G$4="Si",0,AG7*DATOS!$L$11)</f>
@@ -4633,7 +4634,7 @@
       </c>
       <c r="AH21" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="AI21" s="19"/>
     </row>
@@ -4780,7 +4781,7 @@
       </c>
       <c r="C23" s="54">
         <f ca="1">SUM(C10:C22)</f>
-        <v>593.53838709677416</v>
+        <v>218.53838709677419</v>
       </c>
       <c r="D23" s="54">
         <f t="shared" ref="D23:AG23" ca="1" si="2">SUM(D10:D22)</f>
@@ -4792,7 +4793,7 @@
       </c>
       <c r="F23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>593.53838709677416</v>
+        <v>218.53838709677419</v>
       </c>
       <c r="G23" s="54">
         <f t="shared" ca="1" si="2"/>
@@ -4804,11 +4805,11 @@
       </c>
       <c r="I23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>218.53838709677419</v>
+        <v>593.53838709677416</v>
       </c>
       <c r="J23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>218.53838709677419</v>
+        <v>593.53838709677416</v>
       </c>
       <c r="K23" s="54">
         <f t="shared" ca="1" si="2"/>
@@ -4820,23 +4821,23 @@
       </c>
       <c r="M23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>593.53838709677416</v>
+        <v>218.53838709677419</v>
       </c>
       <c r="N23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>218.53838709677419</v>
+        <v>593.53838709677416</v>
       </c>
       <c r="O23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>593.53838709677416</v>
+        <v>218.53838709677419</v>
       </c>
       <c r="P23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>593.53838709677416</v>
+        <v>218.53838709677419</v>
       </c>
       <c r="Q23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>593.53838709677416</v>
+        <v>218.53838709677419</v>
       </c>
       <c r="R23" s="54">
         <f t="shared" ca="1" si="2"/>
@@ -4844,7 +4845,7 @@
       </c>
       <c r="S23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>218.53838709677419</v>
+        <v>593.53838709677416</v>
       </c>
       <c r="T23" s="54">
         <f t="shared" ca="1" si="2"/>
@@ -4852,11 +4853,11 @@
       </c>
       <c r="U23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>218.53838709677419</v>
+        <v>593.53838709677416</v>
       </c>
       <c r="V23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>218.53838709677419</v>
+        <v>593.53838709677416</v>
       </c>
       <c r="W23" s="54">
         <f t="shared" ca="1" si="2"/>
@@ -4864,7 +4865,7 @@
       </c>
       <c r="X23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>593.53838709677416</v>
+        <v>218.53838709677419</v>
       </c>
       <c r="Y23" s="54">
         <f t="shared" ca="1" si="2"/>
@@ -4884,19 +4885,19 @@
       </c>
       <c r="AC23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>218.53838709677419</v>
+        <v>593.53838709677416</v>
       </c>
       <c r="AD23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>218.53838709677419</v>
+        <v>593.53838709677416</v>
       </c>
       <c r="AE23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>593.53838709677416</v>
+        <v>218.53838709677419</v>
       </c>
       <c r="AF23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>593.53838709677416</v>
+        <v>218.53838709677419</v>
       </c>
       <c r="AG23" s="54">
         <f t="shared" ca="1" si="2"/>
@@ -4904,7 +4905,7 @@
       </c>
       <c r="AH23" s="55">
         <f ca="1">SUMPRODUCT(AH10:AH17,AI10:AI17)+AH18+AH19+AH20+AH21+AH22</f>
-        <v>15024.689999999999</v>
+        <v>14649.689999999999</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -4913,7 +4914,7 @@
       </c>
       <c r="C25" s="54">
         <f ca="1">C7-C23</f>
-        <v>406.46161290322584</v>
+        <v>-218.53838709677419</v>
       </c>
       <c r="D25" s="54">
         <f t="shared" ref="D25:AG25" ca="1" si="3">D7-D23</f>
@@ -4925,7 +4926,7 @@
       </c>
       <c r="F25" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>406.46161290322584</v>
+        <v>-218.53838709677419</v>
       </c>
       <c r="G25" s="54">
         <f t="shared" ca="1" si="3"/>
@@ -4937,11 +4938,11 @@
       </c>
       <c r="I25" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>-218.53838709677419</v>
+        <v>406.46161290322584</v>
       </c>
       <c r="J25" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>-218.53838709677419</v>
+        <v>406.46161290322584</v>
       </c>
       <c r="K25" s="54">
         <f t="shared" ca="1" si="3"/>
@@ -4953,23 +4954,23 @@
       </c>
       <c r="M25" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>406.46161290322584</v>
+        <v>-218.53838709677419</v>
       </c>
       <c r="N25" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>-218.53838709677419</v>
+        <v>406.46161290322584</v>
       </c>
       <c r="O25" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>406.46161290322584</v>
+        <v>-218.53838709677419</v>
       </c>
       <c r="P25" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>406.46161290322584</v>
+        <v>-218.53838709677419</v>
       </c>
       <c r="Q25" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>406.46161290322584</v>
+        <v>-218.53838709677419</v>
       </c>
       <c r="R25" s="54">
         <f t="shared" ca="1" si="3"/>
@@ -4977,7 +4978,7 @@
       </c>
       <c r="S25" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>-218.53838709677419</v>
+        <v>406.46161290322584</v>
       </c>
       <c r="T25" s="54">
         <f t="shared" ca="1" si="3"/>
@@ -4985,11 +4986,11 @@
       </c>
       <c r="U25" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>-218.53838709677419</v>
+        <v>406.46161290322584</v>
       </c>
       <c r="V25" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>-218.53838709677419</v>
+        <v>406.46161290322584</v>
       </c>
       <c r="W25" s="54">
         <f t="shared" ca="1" si="3"/>
@@ -4997,7 +4998,7 @@
       </c>
       <c r="X25" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>406.46161290322584</v>
+        <v>-218.53838709677419</v>
       </c>
       <c r="Y25" s="54">
         <f t="shared" ca="1" si="3"/>
@@ -5017,19 +5018,19 @@
       </c>
       <c r="AC25" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>-218.53838709677419</v>
+        <v>406.46161290322584</v>
       </c>
       <c r="AD25" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>-218.53838709677419</v>
+        <v>406.46161290322584</v>
       </c>
       <c r="AE25" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>406.46161290322584</v>
+        <v>-218.53838709677419</v>
       </c>
       <c r="AF25" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>406.46161290322584</v>
+        <v>-218.53838709677419</v>
       </c>
       <c r="AG25" s="54">
         <f t="shared" ca="1" si="3"/>
@@ -5037,7 +5038,7 @@
       </c>
       <c r="AH25" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>6975.3099999999968</v>
+        <v>6350.3099999999977</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="16.2" thickBot="1"/>
@@ -5047,7 +5048,7 @@
       </c>
       <c r="C27" s="57">
         <f ca="1">C25/(1+(DATOS!$B$23/365))^C3</f>
-        <v>406.38367630776952</v>
+        <v>-218.49648366155142</v>
       </c>
       <c r="D27" s="57">
         <f ca="1">D25/(1+(DATOS!$B$23/365))^D3</f>
@@ -5059,7 +5060,7 @@
       </c>
       <c r="F27" s="57">
         <f ca="1">F25/(1+(DATOS!$B$23/365))^F3</f>
-        <v>406.14995617321</v>
+        <v>-218.37082155812703</v>
       </c>
       <c r="G27" s="57">
         <f ca="1">G25/(1+(DATOS!$B$23/365))^G3</f>
@@ -5071,11 +5072,11 @@
       </c>
       <c r="I27" s="57">
         <f ca="1">I25/(1+(DATOS!$B$23/365))^I3</f>
-        <v>-218.24523172572486</v>
+        <v>405.91637045620814</v>
       </c>
       <c r="J27" s="57">
         <f ca="1">J25/(1+(DATOS!$B$23/365))^J3</f>
-        <v>-218.20338450130001</v>
+        <v>405.83853840774646</v>
       </c>
       <c r="K27" s="57">
         <f ca="1">K25/(1+(DATOS!$B$23/365))^K3</f>
@@ -5087,23 +5088,23 @@
       </c>
       <c r="M27" s="57">
         <f ca="1">M25/(1+(DATOS!$B$23/365))^M3</f>
-        <v>405.60513179390819</v>
+        <v>-218.07789096560893</v>
       </c>
       <c r="N27" s="57">
         <f ca="1">N25/(1+(DATOS!$B$23/365))^N3</f>
-        <v>-218.03607582777894</v>
+        <v>405.52735942360783</v>
       </c>
       <c r="O27" s="57">
         <f ca="1">O25/(1+(DATOS!$B$23/365))^O3</f>
-        <v>405.44960196569662</v>
+        <v>-217.99426870775281</v>
       </c>
       <c r="P27" s="57">
         <f ca="1">P25/(1+(DATOS!$B$23/365))^P3</f>
-        <v>405.37185941731525</v>
+        <v>-217.95246960399317</v>
       </c>
       <c r="Q27" s="57">
         <f ca="1">Q25/(1+(DATOS!$B$23/365))^Q3</f>
-        <v>405.2941317756048</v>
+        <v>-217.91067851496285</v>
       </c>
       <c r="R27" s="57">
         <f ca="1">R25/(1+(DATOS!$B$23/365))^R3</f>
@@ -5111,7 +5112,7 @@
       </c>
       <c r="S27" s="57">
         <f ca="1">S25/(1+(DATOS!$B$23/365))^S3</f>
-        <v>-217.82712037494377</v>
+        <v>405.13872120076462</v>
       </c>
       <c r="T27" s="57">
         <f ca="1">T25/(1+(DATOS!$B$23/365))^T3</f>
@@ -5119,11 +5120,11 @@
       </c>
       <c r="U27" s="57">
         <f ca="1">U25/(1+(DATOS!$B$23/365))^U3</f>
-        <v>-217.74359427540475</v>
+        <v>404.98337021831634</v>
       </c>
       <c r="V27" s="57">
         <f ca="1">V25/(1+(DATOS!$B$23/365))^V3</f>
-        <v>-217.70184323697578</v>
+        <v>404.90571706709807</v>
       </c>
       <c r="W27" s="57">
         <f ca="1">W25/(1+(DATOS!$B$23/365))^W3</f>
@@ -5131,7 +5132,7 @@
       </c>
       <c r="X27" s="57">
         <f ca="1">X25/(1+(DATOS!$B$23/365))^X3</f>
-        <v>404.75045543039533</v>
+        <v>-217.61836517512225</v>
       </c>
       <c r="Y27" s="57">
         <f ca="1">Y25/(1+(DATOS!$B$23/365))^Y3</f>
@@ -5151,19 +5152,19 @@
       </c>
       <c r="AC27" s="57">
         <f ca="1">AC25/(1+(DATOS!$B$23/365))^AC3</f>
-        <v>-217.40981003640132</v>
+        <v>404.36256175555906</v>
       </c>
       <c r="AD27" s="57">
         <f ca="1">AD25/(1+(DATOS!$B$23/365))^AD3</f>
-        <v>-217.36812299911381</v>
+        <v>404.28502764066906</v>
       </c>
       <c r="AE27" s="57">
         <f ca="1">AE25/(1+(DATOS!$B$23/365))^AE3</f>
-        <v>404.20750839248421</v>
+        <v>-217.32644395506765</v>
       </c>
       <c r="AF27" s="57">
         <f ca="1">AF25/(1+(DATOS!$B$23/365))^AF3</f>
-        <v>404.13000400815395</v>
+        <v>-217.28477290273017</v>
       </c>
       <c r="AG27" s="83">
         <f ca="1">AG25/(1+(DATOS!$B$23/365))^AG3</f>
@@ -5171,7 +5172,7 @@
       </c>
       <c r="AH27" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>6953.4742752963775</v>
+        <v>6328.5926041345374</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -5180,127 +5181,127 @@
       </c>
       <c r="C29" s="57">
         <f ca="1">C27</f>
-        <v>406.38367630776952</v>
+        <v>-218.49648366155142</v>
       </c>
       <c r="D29" s="57">
         <f ca="1">C29+D27</f>
-        <v>187.92908804670651</v>
+        <v>-436.95107192261446</v>
       </c>
       <c r="E29" s="57">
         <f t="shared" ref="E29:AG29" ca="1" si="4">D29+E27</f>
-        <v>594.15693599233327</v>
+        <v>-30.723223976987754</v>
       </c>
       <c r="F29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.3068921655433</v>
+        <v>-249.09404553511479</v>
       </c>
       <c r="G29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>1406.3789715016203</v>
+        <v>156.97803380096224</v>
       </c>
       <c r="H29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>1812.3731889329845</v>
+        <v>562.97225123232647</v>
       </c>
       <c r="I29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>1594.1279572072597</v>
+        <v>968.88862168853461</v>
       </c>
       <c r="J29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>1375.9245727059597</v>
+        <v>1374.7271600962811</v>
       </c>
       <c r="K29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>1781.6852939890764</v>
+        <v>1780.487881379398</v>
       </c>
       <c r="L29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>2187.3682130685343</v>
+        <v>2186.1708004588559</v>
       </c>
       <c r="M29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>2592.9733448624424</v>
+        <v>1968.0929094932469</v>
       </c>
       <c r="N29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>2374.9372690346636</v>
+        <v>2373.6202689168549</v>
       </c>
       <c r="O29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>2780.3868710003603</v>
+        <v>2155.6260002091021</v>
       </c>
       <c r="P29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>3185.7587304176755</v>
+        <v>1937.6735306051089</v>
       </c>
       <c r="Q29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>3591.0528621932804</v>
+        <v>1719.762852090146</v>
       </c>
       <c r="R29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>3996.2692812309874</v>
+        <v>2124.9792711278533</v>
       </c>
       <c r="S29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>3778.4421608560438</v>
+        <v>2530.1179923286181</v>
       </c>
       <c r="T29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>4183.503199117964</v>
+        <v>2935.1790305905379</v>
       </c>
       <c r="U29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>3965.7596048425594</v>
+        <v>3340.1624008088543</v>
       </c>
       <c r="V29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>3748.0577616055834</v>
+        <v>3745.0681178759523</v>
       </c>
       <c r="W29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>4152.8858404109924</v>
+        <v>4149.8961966813613</v>
       </c>
       <c r="X29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>4557.6362958413874</v>
+        <v>3932.2778315062392</v>
       </c>
       <c r="Y29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>4962.3091427805884</v>
+        <v>4336.9506784454406</v>
       </c>
       <c r="Z29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>5366.9043961095622</v>
+        <v>4741.5459317744144</v>
       </c>
       <c r="AA29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>5771.4220707064214</v>
+        <v>5146.0636063712736</v>
       </c>
       <c r="AB29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>6175.8621814464268</v>
+        <v>5550.503717111279</v>
       </c>
       <c r="AC29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>5958.4523714100251</v>
+        <v>5954.866278866838</v>
       </c>
       <c r="AD29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>5741.0842484109116</v>
+        <v>6359.1513065075069</v>
       </c>
       <c r="AE29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>6145.2917568033954</v>
+        <v>6141.8248625524393</v>
       </c>
       <c r="AF29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>6549.4217608115496</v>
+        <v>5924.5400896497094</v>
       </c>
       <c r="AG29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>6953.4742752963775</v>
+        <v>6328.5926041345374</v>
       </c>
     </row>
   </sheetData>
@@ -5413,55 +5414,55 @@
       </c>
       <c r="C4" s="71">
         <f ca="1">NORMINV(RAND(),82.0097,5.52518 )/100</f>
-        <v>0.82858108727736945</v>
+        <v>0.75970916696711299</v>
       </c>
       <c r="D4" s="71">
         <f ca="1">NORMINV(RAND(),82.0097,5.52518 )/100</f>
-        <v>0.80602815218824175</v>
+        <v>0.83996664399136245</v>
       </c>
       <c r="E4" s="71">
         <f ca="1">NORMINV(RAND(),82.0097,5.52518 )/100</f>
-        <v>0.88604506408503814</v>
+        <v>0.8177352319191461</v>
       </c>
       <c r="F4" s="71">
         <f ca="1">NORMINV(RAND(),30.2226,3.64451 )/100</f>
-        <v>0.2567021830913625</v>
+        <v>0.31228248309719109</v>
       </c>
       <c r="G4" s="71">
         <f ca="1">NORMINV(RAND(),30.2226,3.64451 )/100</f>
-        <v>0.2779903604098895</v>
+        <v>0.29801095218368268</v>
       </c>
       <c r="H4" s="71">
         <f ca="1">NORMINV(RAND(),30.2226,3.64451 )/100</f>
-        <v>0.34771116707101313</v>
+        <v>0.34038030122458379</v>
       </c>
       <c r="I4" s="71">
         <f ca="1">NORMINV(RAND(),82.0097,5.52518 )/100</f>
-        <v>0.75491701742532213</v>
+        <v>0.86757750450938842</v>
       </c>
       <c r="J4" s="71">
         <f ca="1">NORMINV(RAND(),82.0097,5.52518 )/100</f>
-        <v>0.85437983816839491</v>
+        <v>0.82892802341168248</v>
       </c>
       <c r="K4" s="71">
         <f ca="1">NORMINV(RAND(),30.2226,3.64451 )/100</f>
-        <v>0.27782701819220457</v>
+        <v>0.31526645003911452</v>
       </c>
       <c r="L4" s="71">
         <f ca="1">((NORMINV(RAND(),82.0097,5.52518 )/100)+(NORMINV(RAND(),30.2226,3.64451 )/100))/2</f>
-        <v>0.5505776013647744</v>
+        <v>0.5682061820144344</v>
       </c>
       <c r="M4" s="71">
         <f ca="1">((NORMINV(RAND(),82.0097,5.52518 )/100)+(NORMINV(RAND(),30.2226,3.64451 )/100))/2</f>
-        <v>0.60534132867242918</v>
+        <v>0.55856592982566189</v>
       </c>
       <c r="N4" s="71">
         <f ca="1">NORMINV(RAND(),82.0097,5.52518 )/100</f>
-        <v>0.77851106771543399</v>
+        <v>0.85532595606331885</v>
       </c>
       <c r="O4" s="72">
         <f ca="1">AVERAGE(C4:N4)</f>
-        <v>0.60205099047178945</v>
+        <v>0.61349623543722331</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -5470,55 +5471,55 @@
       </c>
       <c r="C5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_MENSUAL!C4</f>
-        <v>0.75009474860656311</v>
+        <v>0.68774663742661335</v>
       </c>
       <c r="D5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_MENSUAL!D4</f>
-        <v>0.72967811294377438</v>
+        <v>0.76040182226810504</v>
       </c>
       <c r="E5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_MENSUAL!E4</f>
-        <v>0.8021155198977773</v>
+        <v>0.74027625374436212</v>
       </c>
       <c r="F5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_MENSUAL!F4</f>
-        <v>0.23238638010116033</v>
+        <v>0.28270190359125102</v>
       </c>
       <c r="G5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_MENSUAL!G4</f>
-        <v>0.25165806063939483</v>
+        <v>0.26978222613641745</v>
       </c>
       <c r="H5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_MENSUAL!H4</f>
-        <v>0.31477464844007158</v>
+        <v>0.30813818997079312</v>
       </c>
       <c r="I5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_MENSUAL!I4</f>
-        <v>0.68340841843872158</v>
+        <v>0.78539727750729338</v>
       </c>
       <c r="J5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_MENSUAL!J4</f>
-        <v>0.77344974410562051</v>
+        <v>0.75040882163628331</v>
       </c>
       <c r="K5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_MENSUAL!K4</f>
-        <v>0.25151019081519471</v>
+        <v>0.28540321788326201</v>
       </c>
       <c r="L5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_MENSUAL!L4</f>
-        <v>0.49842480576178916</v>
+        <v>0.5143835404876167</v>
       </c>
       <c r="M5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_MENSUAL!M4</f>
-        <v>0.54800110541228164</v>
+        <v>0.5056564494966771</v>
       </c>
       <c r="N5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_MENSUAL!N4</f>
-        <v>0.7047675509276432</v>
+        <v>0.77430624213030641</v>
       </c>
       <c r="O5" s="72">
         <f ca="1">AVERAGE(C5:N5)</f>
-        <v>0.54502244050749937</v>
+        <v>0.55538354852324845</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -5527,19 +5528,19 @@
       </c>
       <c r="C6" s="43">
         <f ca="1">IF(DATOS!$G$4="Si",31,ROUNDUP(C4*C5*31,0))</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="43">
         <f ca="1">IF(DATOS!$G$4="Si",28,ROUNDUP(D4*D5*31,0))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="43">
         <f ca="1">IF(DATOS!$G$4="Si",31,ROUNDUP(E4*E5*31,0))</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F6" s="43">
         <f ca="1">IF(DATOS!$G$4="Si",30,ROUNDUP(F4*F5*31,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="43">
         <f ca="1">IF(DATOS!$G$4="Si",31,ROUNDUP(G4*G5*31,0))</f>
@@ -5551,11 +5552,11 @@
       </c>
       <c r="I6" s="43">
         <f ca="1">IF(DATOS!$G$4="Si",31,ROUNDUP(I4*I5*31,0))</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J6" s="43">
         <f ca="1">IF(DATOS!$G$4="Si",31,ROUNDUP(J4*J5*31,0))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="43">
         <f ca="1">IF(DATOS!$G$4="Si",30,ROUNDUP(K4*K5*31,0))</f>
@@ -5563,19 +5564,19 @@
       </c>
       <c r="L6" s="43">
         <f ca="1">IF(DATOS!$G$4="Si",31,ROUNDUP(L4*L5*31,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M6" s="43">
         <f ca="1">IF(DATOS!$G$4="Si",30,ROUNDUP(M4*M5*31,0))</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N6" s="43">
         <f ca="1">IF(DATOS!$G$4="Si",31,ROUNDUP(N4*N5*31,0))</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O6" s="87">
         <f ca="1">SUM(C6:N6)</f>
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -5584,55 +5585,55 @@
       </c>
       <c r="C7" s="48">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,NORMINV(RAND(),1070.6,367.697))</f>
-        <v>982.18540577817214</v>
+        <v>751.76511916070376</v>
       </c>
       <c r="D7" s="48">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,NORMINV(RAND(), 1019, 334.8 ))</f>
-        <v>1502.0597194309466</v>
+        <v>905.85700095128618</v>
       </c>
       <c r="E7" s="48">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,NORMINV(RAND(), 1019, 334.8))</f>
-        <v>776.14504064555263</v>
+        <v>773.60067773430706</v>
       </c>
       <c r="F7" s="48">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,NORMINV(RAND(), 1012.05, 334.55 ))</f>
-        <v>930.88018855066866</v>
+        <v>1240.7044262645845</v>
       </c>
       <c r="G7" s="48">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,NORMINV(RAND(), 978.1, 352.35 ))</f>
-        <v>-110.60171035271662</v>
+        <v>967.22882072825917</v>
       </c>
       <c r="H7" s="48">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,NORMINV(RAND(), 1013.24, 434.35))</f>
-        <v>1667.2434595740242</v>
+        <v>845.32796692699071</v>
       </c>
       <c r="I7" s="48">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,NORMINV(RAND(), 1037.81, 415.65))</f>
-        <v>1364.1374402445206</v>
+        <v>561.70393148224184</v>
       </c>
       <c r="J7" s="48">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,NORMINV(RAND(), 999.71, 332.06 ))</f>
-        <v>573.81709971751002</v>
+        <v>956.66366142647814</v>
       </c>
       <c r="K7" s="48">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,NORMINV(RAND(), 994.05, 336.04))</f>
-        <v>1470.3529881557531</v>
+        <v>900.67505586293657</v>
       </c>
       <c r="L7" s="48">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,NORMINV(RAND(), 1006.52, 331.09))</f>
-        <v>908.8206568721954</v>
+        <v>1220.0237226892457</v>
       </c>
       <c r="M7" s="48">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,NORMINV(RAND(), 1019, 334.8))</f>
-        <v>845.10534800424466</v>
+        <v>626.16692942741065</v>
       </c>
       <c r="N7" s="48">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,NORMINV(RAND(), 1019, 334.8))</f>
-        <v>1433.6068237999489</v>
+        <v>808.63810424821816</v>
       </c>
       <c r="O7" s="88">
         <f ca="1">AVERAGE(C7:N7)</f>
-        <v>1028.6460383684018</v>
+        <v>879.8629514085552</v>
       </c>
       <c r="P7" s="64"/>
     </row>
@@ -5642,55 +5643,55 @@
       </c>
       <c r="C8" s="55">
         <f ca="1">C6*C7</f>
-        <v>19643.708115563444</v>
+        <v>12780.007025731964</v>
       </c>
       <c r="D8" s="55">
         <f t="shared" ref="D8:N8" ca="1" si="0">D6*D7</f>
-        <v>28539.134669187988</v>
+        <v>18117.140019025723</v>
       </c>
       <c r="E8" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>17851.33593484771</v>
+        <v>14698.412876951834</v>
       </c>
       <c r="F8" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>1861.7603771013373</v>
+        <v>3722.1132787937536</v>
       </c>
       <c r="G8" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>-331.80513105814987</v>
+        <v>2901.6864621847776</v>
       </c>
       <c r="H8" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>6668.9738382960968</v>
+        <v>3381.3118677079628</v>
       </c>
       <c r="I8" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>21826.199043912329</v>
+        <v>12357.486492609321</v>
       </c>
       <c r="J8" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>12050.159094067711</v>
+        <v>19133.273228529564</v>
       </c>
       <c r="K8" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>4411.0589644672591</v>
+        <v>2702.0251675888098</v>
       </c>
       <c r="L8" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>8179.3859118497585</v>
+        <v>12200.237226892457</v>
       </c>
       <c r="M8" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>9296.1588280466913</v>
+        <v>5635.5023648466959</v>
       </c>
       <c r="N8" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>25804.922828399081</v>
+        <v>16981.400189212582</v>
       </c>
       <c r="O8" s="89">
-        <f t="shared" ref="O8" ca="1" si="1">SUM(C8:N8)</f>
-        <v>155800.99247468129</v>
+        <f ca="1">SUM(C8:N8)</f>
+        <v>124610.59620007544</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -5857,7 +5858,7 @@
         <v>150</v>
       </c>
       <c r="O12" s="47">
-        <f t="shared" ref="O12:O23" si="2">SUM(C12:N12)</f>
+        <f t="shared" ref="O12:O23" si="1">SUM(C12:N12)</f>
         <v>1800</v>
       </c>
       <c r="P12" s="100">
@@ -5918,7 +5919,7 @@
         <v>500</v>
       </c>
       <c r="O13" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="P13" s="100">
@@ -5979,7 +5980,7 @@
         <v>300</v>
       </c>
       <c r="O14" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3600</v>
       </c>
       <c r="P14" s="100">
@@ -6040,7 +6041,7 @@
         <v>200</v>
       </c>
       <c r="O15" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
       <c r="P15" s="100">
@@ -6101,7 +6102,7 @@
         <v>250</v>
       </c>
       <c r="O16" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="P16" s="100">
@@ -6162,7 +6163,7 @@
         <v>250</v>
       </c>
       <c r="O17" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="P17" s="100">
@@ -6223,7 +6224,7 @@
         <v>200</v>
       </c>
       <c r="O18" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
       <c r="P18" s="100">
@@ -6240,55 +6241,55 @@
       </c>
       <c r="C19" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,C8*DATOS!$L$4)</f>
-        <v>1080.4039463559895</v>
+        <v>702.90038641525803</v>
       </c>
       <c r="D19" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,D8*DATOS!$L$4)</f>
-        <v>1569.6524068053393</v>
+        <v>996.44270104641475</v>
       </c>
       <c r="E19" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,E8*DATOS!$L$4)</f>
-        <v>981.82347641662409</v>
+        <v>808.41270823235084</v>
       </c>
       <c r="F19" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,F8*DATOS!$L$4)</f>
-        <v>102.39682074057356</v>
+        <v>204.71623033365645</v>
       </c>
       <c r="G19" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,G8*DATOS!$L$4)</f>
-        <v>-18.249282208198242</v>
+        <v>159.59275542016277</v>
       </c>
       <c r="H19" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,H8*DATOS!$L$4)</f>
-        <v>366.79356110628532</v>
+        <v>185.97215272393797</v>
       </c>
       <c r="I19" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,I8*DATOS!$L$4)</f>
-        <v>1200.440947415178</v>
+        <v>679.66175709351273</v>
       </c>
       <c r="J19" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,J8*DATOS!$L$4)</f>
-        <v>662.75875017372414</v>
+        <v>1052.3300275691261</v>
       </c>
       <c r="K19" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,K8*DATOS!$L$4)</f>
-        <v>242.60824304569925</v>
+        <v>148.61138421738454</v>
       </c>
       <c r="L19" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,L8*DATOS!$L$4)</f>
-        <v>449.86622515173673</v>
+        <v>671.01304747908512</v>
       </c>
       <c r="M19" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,M8*DATOS!$L$4)</f>
-        <v>511.28873554256802</v>
+        <v>309.95263006656825</v>
       </c>
       <c r="N19" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,N8*DATOS!$L$4)</f>
-        <v>1419.2707555619495</v>
+        <v>933.97701040669199</v>
       </c>
       <c r="O19" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>8569.0545861074697</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6853.5827910041489</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -6298,55 +6299,55 @@
       </c>
       <c r="C20" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,C8*DATOS!$L$6)</f>
-        <v>785.74832462253778</v>
+        <v>511.20028102927859</v>
       </c>
       <c r="D20" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,D8*DATOS!$L$6)</f>
-        <v>1141.5653867675196</v>
+        <v>724.68560076102892</v>
       </c>
       <c r="E20" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,E8*DATOS!$L$6)</f>
-        <v>714.05343739390844</v>
+        <v>587.9365150780734</v>
       </c>
       <c r="F20" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,F8*DATOS!$L$6)</f>
-        <v>74.470415084053499</v>
+        <v>148.88453115175014</v>
       </c>
       <c r="G20" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,G8*DATOS!$L$6)</f>
-        <v>-13.272205242325995</v>
+        <v>116.06745848739111</v>
       </c>
       <c r="H20" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,H8*DATOS!$L$6)</f>
-        <v>266.75895353184387</v>
+        <v>135.25247470831852</v>
       </c>
       <c r="I20" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,I8*DATOS!$L$6)</f>
-        <v>873.04796175649324</v>
+        <v>494.29945970437285</v>
       </c>
       <c r="J20" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,J8*DATOS!$L$6)</f>
-        <v>482.00636376270842</v>
+        <v>765.33092914118254</v>
       </c>
       <c r="K20" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,K8*DATOS!$L$6)</f>
-        <v>176.44235857869037</v>
+        <v>108.08100670355239</v>
       </c>
       <c r="L20" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,L8*DATOS!$L$6)</f>
-        <v>327.17543647399037</v>
+        <v>488.0094890756983</v>
       </c>
       <c r="M20" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,M8*DATOS!$L$6)</f>
-        <v>371.84635312186765</v>
+        <v>225.42009459386784</v>
       </c>
       <c r="N20" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,N8*DATOS!$L$6)</f>
-        <v>1032.1969131359633</v>
+        <v>679.25600756850326</v>
       </c>
       <c r="O20" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>6232.0396989872515</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4984.4238480030172</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -6356,55 +6357,55 @@
       </c>
       <c r="C21" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,C8*DATOS!$L$7)</f>
-        <v>1571.4966492450756</v>
+        <v>1022.4005620585572</v>
       </c>
       <c r="D21" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,D8*DATOS!$L$7)</f>
-        <v>2283.1307735350392</v>
+        <v>1449.3712015220578</v>
       </c>
       <c r="E21" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,E8*DATOS!$L$7)</f>
-        <v>1428.1068747878169</v>
+        <v>1175.8730301561468</v>
       </c>
       <c r="F21" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,F8*DATOS!$L$7)</f>
-        <v>148.940830168107</v>
+        <v>297.76906230350028</v>
       </c>
       <c r="G21" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,G8*DATOS!$L$7)</f>
-        <v>-26.544410484651991</v>
+        <v>232.13491697478221</v>
       </c>
       <c r="H21" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,H8*DATOS!$L$7)</f>
-        <v>533.51790706368774</v>
+        <v>270.50494941663703</v>
       </c>
       <c r="I21" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,I8*DATOS!$L$7)</f>
-        <v>1746.0959235129865</v>
+        <v>988.5989194087457</v>
       </c>
       <c r="J21" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,J8*DATOS!$L$7)</f>
-        <v>964.01272752541684</v>
+        <v>1530.6618582823651</v>
       </c>
       <c r="K21" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,K8*DATOS!$L$7)</f>
-        <v>352.88471715738075</v>
+        <v>216.16201340710478</v>
       </c>
       <c r="L21" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,L8*DATOS!$L$7)</f>
-        <v>654.35087294798075</v>
+        <v>976.0189781513966</v>
       </c>
       <c r="M21" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,M8*DATOS!$L$7)</f>
-        <v>743.6927062437353</v>
+        <v>450.84018918773569</v>
       </c>
       <c r="N21" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,N8*DATOS!$L$7)</f>
-        <v>2064.3938262719266</v>
+        <v>1358.5120151370065</v>
       </c>
       <c r="O21" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>12464.079397974503</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9968.8476960060343</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -6416,55 +6417,55 @@
       </c>
       <c r="C22" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,C8*DATOS!$L$11)</f>
-        <v>3928.741623112689</v>
+        <v>2556.0014051463932</v>
       </c>
       <c r="D22" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,D8*DATOS!$L$11)</f>
-        <v>5707.8269338375976</v>
+        <v>3623.4280038051447</v>
       </c>
       <c r="E22" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,E8*DATOS!$L$11)</f>
-        <v>3570.2671869695423</v>
+        <v>2939.6825753903668</v>
       </c>
       <c r="F22" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,F8*DATOS!$L$11)</f>
-        <v>372.35207542026751</v>
+        <v>744.42265575875081</v>
       </c>
       <c r="G22" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,G8*DATOS!$L$11)</f>
-        <v>-66.361026211629977</v>
+        <v>580.33729243695552</v>
       </c>
       <c r="H22" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,H8*DATOS!$L$11)</f>
-        <v>1333.7947676592194</v>
+        <v>676.26237354159264</v>
       </c>
       <c r="I22" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,I8*DATOS!$L$11)</f>
-        <v>4365.2398087824658</v>
+        <v>2471.4972985218646</v>
       </c>
       <c r="J22" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,J8*DATOS!$L$11)</f>
-        <v>2410.031818813542</v>
+        <v>3826.654645705913</v>
       </c>
       <c r="K22" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,K8*DATOS!$L$11)</f>
-        <v>882.21179289345184</v>
+        <v>540.40503351776204</v>
       </c>
       <c r="L22" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,L8*DATOS!$L$11)</f>
-        <v>1635.8771823699517</v>
+        <v>2440.0474453784914</v>
       </c>
       <c r="M22" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,M8*DATOS!$L$11)</f>
-        <v>1859.2317656093383</v>
+        <v>1127.1004729693393</v>
       </c>
       <c r="N22" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,N8*DATOS!$L$11)</f>
-        <v>5160.984565679817</v>
+        <v>3396.2800378425163</v>
       </c>
       <c r="O22" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>31160.198494936249</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>24922.11924001509</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -6523,7 +6524,7 @@
         <v>4424.6899999999996</v>
       </c>
       <c r="O23" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53096.280000000006</v>
       </c>
     </row>
@@ -6533,55 +6534,55 @@
       </c>
       <c r="C24" s="54">
         <f ca="1">SUM(C11:C23)</f>
-        <v>14141.080543336291</v>
+        <v>11567.192634649487</v>
       </c>
       <c r="D24" s="54">
-        <f t="shared" ref="D24:N24" ca="1" si="3">SUM(D11:D23)</f>
-        <v>17476.865500945496</v>
+        <f t="shared" ref="D24:N24" ca="1" si="2">SUM(D11:D23)</f>
+        <v>13568.617507134644</v>
       </c>
       <c r="E24" s="54">
-        <f t="shared" ca="1" si="3"/>
-        <v>13468.94097556789</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>12286.594828856938</v>
       </c>
       <c r="F24" s="54">
-        <f t="shared" ca="1" si="3"/>
-        <v>7472.8501414130014</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8170.482479547657</v>
       </c>
       <c r="G24" s="54">
-        <f t="shared" ca="1" si="3"/>
-        <v>6650.2630758531941</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7862.8224233192905</v>
       </c>
       <c r="H24" s="54">
-        <f t="shared" ca="1" si="3"/>
-        <v>9275.5551893610354</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8042.6819503904862</v>
       </c>
       <c r="I24" s="54">
-        <f t="shared" ca="1" si="3"/>
-        <v>14959.514641467122</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11408.747434728495</v>
       </c>
       <c r="J24" s="54">
-        <f t="shared" ca="1" si="3"/>
-        <v>11293.499660275393</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>13949.667460698587</v>
       </c>
       <c r="K24" s="54">
-        <f t="shared" ca="1" si="3"/>
-        <v>8428.8371116752205</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7787.9494378458039</v>
       </c>
       <c r="L24" s="54">
-        <f t="shared" ca="1" si="3"/>
-        <v>9841.9597169436602</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11349.77896008467</v>
       </c>
       <c r="M24" s="54">
-        <f t="shared" ca="1" si="3"/>
-        <v>10260.74956051751</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8888.0033868175105</v>
       </c>
       <c r="N24" s="81">
-        <f t="shared" ca="1" si="3"/>
-        <v>16451.536060649654</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>13142.715070954717</v>
       </c>
       <c r="O24" s="82">
         <f ca="1">SUMPRODUCT(O11:O18,P11:P18)+O19+O20+O21+O22+O23</f>
-        <v>139721.65217800549</v>
+        <v>128025.2535750283</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -6593,55 +6594,55 @@
       </c>
       <c r="C26" s="54">
         <f ca="1">C8-C24</f>
-        <v>5502.627572227153</v>
+        <v>1212.8143910824765</v>
       </c>
       <c r="D26" s="54">
-        <f t="shared" ref="D26:N26" ca="1" si="4">D8-D24</f>
-        <v>11062.269168242492</v>
+        <f t="shared" ref="D26:N26" ca="1" si="3">D8-D24</f>
+        <v>4548.5225118910785</v>
       </c>
       <c r="E26" s="54">
-        <f t="shared" ca="1" si="4"/>
-        <v>4382.3949592798199</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2411.8180480948959</v>
       </c>
       <c r="F26" s="54">
-        <f t="shared" ca="1" si="4"/>
-        <v>-5611.0897643116641</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-4448.369200753903</v>
       </c>
       <c r="G26" s="54">
-        <f t="shared" ca="1" si="4"/>
-        <v>-6982.0682069113436</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-4961.1359611345124</v>
       </c>
       <c r="H26" s="54">
-        <f t="shared" ca="1" si="4"/>
-        <v>-2606.5813510649386</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-4661.3700826825234</v>
       </c>
       <c r="I26" s="54">
-        <f t="shared" ca="1" si="4"/>
-        <v>6866.6844024452075</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>948.73905788082629</v>
       </c>
       <c r="J26" s="54">
-        <f t="shared" ca="1" si="4"/>
-        <v>756.65943379231794</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5183.6057678309771</v>
       </c>
       <c r="K26" s="54">
-        <f t="shared" ca="1" si="4"/>
-        <v>-4017.7781472079614</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-5085.9242702569936</v>
       </c>
       <c r="L26" s="54">
-        <f t="shared" ca="1" si="4"/>
-        <v>-1662.5738050939017</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>850.45826680778737</v>
       </c>
       <c r="M26" s="54">
-        <f t="shared" ca="1" si="4"/>
-        <v>-964.59073247081869</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-3252.5010219708147</v>
       </c>
       <c r="N26" s="54">
-        <f t="shared" ca="1" si="4"/>
-        <v>9353.3867677494272</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3838.6851182578648</v>
       </c>
       <c r="O26" s="86">
         <f ca="1">SUM(C26:N26)</f>
-        <v>16079.340296675789</v>
+        <v>-3414.6573749528407</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.2" thickBot="1"/>
@@ -6651,55 +6652,55 @@
       </c>
       <c r="C28" s="57">
         <f ca="1">C26/(1+(DATOS!$B$23/12))^C10</f>
-        <v>5470.7150676657693</v>
+        <v>1205.7806705045334</v>
       </c>
       <c r="D28" s="57">
         <f ca="1">D26/(1+(DATOS!$B$23/12))^D10</f>
-        <v>10934.329914952879</v>
+        <v>4495.9171589664766</v>
       </c>
       <c r="E28" s="57">
         <f ca="1">E26/(1+(DATOS!$B$23/12))^E10</f>
-        <v>4306.5891631103104</v>
+        <v>2370.0988993073865</v>
       </c>
       <c r="F28" s="57">
         <f ca="1">F26/(1+(DATOS!$B$23/12))^F10</f>
-        <v>-5482.0516154186726</v>
+        <v>-4346.0701195827614</v>
       </c>
       <c r="G28" s="57">
         <f ca="1">G26/(1+(DATOS!$B$23/12))^G10</f>
-        <v>-6781.9403680972109</v>
+        <v>-4818.934339989918</v>
       </c>
       <c r="H28" s="57">
         <f ca="1">H26/(1+(DATOS!$B$23/12))^H10</f>
-        <v>-2517.18502518075</v>
+        <v>-4501.501924795165</v>
       </c>
       <c r="I28" s="57">
         <f ca="1">I26/(1+(DATOS!$B$23/12))^I10</f>
-        <v>6592.7243697266103</v>
+        <v>910.88722603518522</v>
       </c>
       <c r="J28" s="57">
         <f ca="1">J26/(1+(DATOS!$B$23/12))^J10</f>
-        <v>722.25782993953271</v>
+        <v>4947.9325650795272</v>
       </c>
       <c r="K28" s="57">
         <f ca="1">K26/(1+(DATOS!$B$23/12))^K10</f>
-        <v>-3812.8676964125311</v>
+        <v>-4826.5373661657359</v>
       </c>
       <c r="L28" s="57">
         <f ca="1">L26/(1+(DATOS!$B$23/12))^L10</f>
-        <v>-1568.6306375561405</v>
+        <v>802.40341162011919</v>
       </c>
       <c r="M28" s="57">
         <f ca="1">M26/(1+(DATOS!$B$23/12))^M10</f>
-        <v>-904.80880972883313</v>
+        <v>-3050.9225096875539</v>
       </c>
       <c r="N28" s="83">
         <f ca="1">N26/(1+(DATOS!$B$23/12))^N10</f>
-        <v>8722.8138492903345</v>
+        <v>3579.89427188642</v>
       </c>
       <c r="O28" s="85">
         <f ca="1">SUM(C28:N28)</f>
-        <v>15681.9460422913</v>
+        <v>-3231.052056821487</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -6708,51 +6709,51 @@
       </c>
       <c r="C30" s="57">
         <f ca="1">C28</f>
-        <v>5470.7150676657693</v>
+        <v>1205.7806705045334</v>
       </c>
       <c r="D30" s="57">
         <f ca="1">C30+D28</f>
-        <v>16405.044982618649</v>
+        <v>5701.6978294710098</v>
       </c>
       <c r="E30" s="57">
-        <f t="shared" ref="E30:N30" ca="1" si="5">D30+E28</f>
-        <v>20711.63414572896</v>
+        <f t="shared" ref="E30:N30" ca="1" si="4">D30+E28</f>
+        <v>8071.7967287783958</v>
       </c>
       <c r="F30" s="57">
-        <f t="shared" ca="1" si="5"/>
-        <v>15229.582530310287</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3725.7266091956344</v>
       </c>
       <c r="G30" s="57">
-        <f t="shared" ca="1" si="5"/>
-        <v>8447.6421622130765</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-1093.2077307942836</v>
       </c>
       <c r="H30" s="57">
-        <f t="shared" ca="1" si="5"/>
-        <v>5930.4571370323265</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-5594.7096555894486</v>
       </c>
       <c r="I30" s="57">
-        <f t="shared" ca="1" si="5"/>
-        <v>12523.181506758938</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-4683.8224295542632</v>
       </c>
       <c r="J30" s="57">
-        <f t="shared" ca="1" si="5"/>
-        <v>13245.43933669847</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>264.11013552526401</v>
       </c>
       <c r="K30" s="57">
-        <f t="shared" ca="1" si="5"/>
-        <v>9432.571640285938</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-4562.4272306404719</v>
       </c>
       <c r="L30" s="57">
-        <f t="shared" ca="1" si="5"/>
-        <v>7863.9410027297972</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-3760.0238190203527</v>
       </c>
       <c r="M30" s="57">
-        <f t="shared" ca="1" si="5"/>
-        <v>6959.1321930009644</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-6810.946328707907</v>
       </c>
       <c r="N30" s="57">
-        <f t="shared" ca="1" si="5"/>
-        <v>15681.9460422913</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-3231.052056821487</v>
       </c>
     </row>
   </sheetData>
@@ -6789,8 +6790,8 @@
   </sheetPr>
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="O16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -6883,87 +6884,87 @@
       </c>
       <c r="C4" s="71">
         <f ca="1">(7*((NORMINV(RAND(),82.0097,5.52518)/100))+5*((NORMINV(RAND(),30.2226,3.64451)/100)))/12</f>
-        <v>0.62716444142957883</v>
+        <v>0.54151693490506558</v>
       </c>
       <c r="D4" s="71">
         <f t="shared" ref="D4:V4" ca="1" si="0">(7*((NORMINV(RAND(),82.0097,5.52518)/100))+5*((NORMINV(RAND(),30.2226,3.64451)/100)))/12</f>
-        <v>0.56771721775946504</v>
+        <v>0.62252280094026857</v>
       </c>
       <c r="E4" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62278444020378299</v>
+        <v>0.59700429661407095</v>
       </c>
       <c r="F4" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64907905865121929</v>
+        <v>0.63327752606851151</v>
       </c>
       <c r="G4" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50995099763924812</v>
+        <v>0.64226556903158005</v>
       </c>
       <c r="H4" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59678336672598165</v>
+        <v>0.56675197609113992</v>
       </c>
       <c r="I4" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62451312818049309</v>
+        <v>0.57239001913323639</v>
       </c>
       <c r="J4" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62081851064835802</v>
+        <v>0.61822537144519207</v>
       </c>
       <c r="K4" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57993408950957559</v>
+        <v>0.66519207339557795</v>
       </c>
       <c r="L4" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56791472828316703</v>
+        <v>0.58767079892280605</v>
       </c>
       <c r="M4" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59352637551959753</v>
+        <v>0.55047866210573926</v>
       </c>
       <c r="N4" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55670652012949473</v>
+        <v>0.5956616914485845</v>
       </c>
       <c r="O4" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59604746423959598</v>
+        <v>0.61006068487746978</v>
       </c>
       <c r="P4" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63906547589126583</v>
+        <v>0.60640306380198139</v>
       </c>
       <c r="Q4" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55785359956135638</v>
+        <v>0.50603701982180194</v>
       </c>
       <c r="R4" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59857352935767694</v>
+        <v>0.6085993342435797</v>
       </c>
       <c r="S4" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59413266934251396</v>
+        <v>0.57462635335686574</v>
       </c>
       <c r="T4" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60200210499025275</v>
+        <v>0.61241494709432376</v>
       </c>
       <c r="U4" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57064313799007205</v>
+        <v>0.59010938068600416</v>
       </c>
       <c r="V4" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57495030679642756</v>
+        <v>0.55740762964131307</v>
       </c>
       <c r="W4" s="101">
         <f ca="1">AVERAGE(C4:V4)</f>
-        <v>0.59250805814245622</v>
+        <v>0.59293080668125564</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -6972,87 +6973,87 @@
       </c>
       <c r="C5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!C4</f>
-        <v>0.56775705027843226</v>
+        <v>0.49022239994459232</v>
       </c>
       <c r="D5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!D4</f>
-        <v>0.51394089277873156</v>
+        <v>0.5635550835555474</v>
       </c>
       <c r="E5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!E4</f>
-        <v>0.5637919393571158</v>
+        <v>0.5404537886053199</v>
       </c>
       <c r="F5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!F4</f>
-        <v>0.58759583195964238</v>
+        <v>0.57329108038828902</v>
       </c>
       <c r="G5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!G4</f>
-        <v>0.46164650780621935</v>
+        <v>0.58142774188149426</v>
       </c>
       <c r="H5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!H4</f>
-        <v>0.54025378603295782</v>
+        <v>0.51306708245688848</v>
       </c>
       <c r="I5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!I4</f>
-        <v>0.5653568794616145</v>
+        <v>0.5181710687090858</v>
       </c>
       <c r="J5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!J4</f>
-        <v>0.56201223009474266</v>
+        <v>0.55966472285789282</v>
       </c>
       <c r="K5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!K4</f>
-        <v>0.52500053616773179</v>
+        <v>0.60218256092261913</v>
       </c>
       <c r="L5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!L4</f>
-        <v>0.51411969435759719</v>
+        <v>0.53200439516411324</v>
       </c>
       <c r="M5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!M4</f>
-        <v>0.53730530936884036</v>
+        <v>0.49833523840408234</v>
       </c>
       <c r="N5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!N4</f>
-        <v>0.5039731701290705</v>
+        <v>0.53923836008595483</v>
       </c>
       <c r="O5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!O4</f>
-        <v>0.53958759101716502</v>
+        <v>0.55227342632397014</v>
       </c>
       <c r="P5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!P4</f>
-        <v>0.57853077368313843</v>
+        <v>0.54896226896925482</v>
       </c>
       <c r="Q5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!Q4</f>
-        <v>0.50501159385281402</v>
+        <v>0.4581032767910439</v>
       </c>
       <c r="R5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!R4</f>
-        <v>0.54187437768029878</v>
+        <v>0.55095050035669324</v>
       </c>
       <c r="S5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!S4</f>
-        <v>0.53785417274463443</v>
+        <v>0.52019556888538776</v>
       </c>
       <c r="T5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!T4</f>
-        <v>0.54497818564391776</v>
+        <v>0.55440468390734998</v>
       </c>
       <c r="U5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!U4</f>
-        <v>0.51658965876376228</v>
+        <v>0.53421198522706426</v>
       </c>
       <c r="V5" s="72">
         <f ca="1">DATOS!$K$28*FLUJO_ANUAL!V4</f>
-        <v>0.52048883622824582</v>
+        <v>0.50460786789261836</v>
       </c>
       <c r="W5" s="101">
         <f ca="1">AVERAGE(C5:V5)</f>
-        <v>0.53638345087033368</v>
+        <v>0.53676615506646308</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -7061,87 +7062,87 @@
       </c>
       <c r="C6" s="93">
         <f ca="1">ROUNDUP(C4*C5*365,0)</f>
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="D6" s="43">
         <f t="shared" ref="D6:V6" ca="1" si="1">ROUNDUP(D4*D5*365,0)</f>
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="E6" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F6" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G6" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="H6" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="I6" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="J6" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K6" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="L6" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M6" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="N6" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="O6" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P6" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="Q6" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="R6" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="S6" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="T6" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="U6" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="V6" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="W6" s="87">
         <f ca="1">SUM(C6:V6)</f>
-        <v>2336</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -7150,87 +7151,87 @@
       </c>
       <c r="C7" s="48">
         <f ca="1">IF(DATOS!$G$4="Si",(DATOS!$F$4)/31,NORMINV(RAND(), 1000, 269))</f>
-        <v>995.47436853789418</v>
+        <v>1390.1271600172581</v>
       </c>
       <c r="D7" s="47">
         <f ca="1">C7*(1+DATOS!$B$24)</f>
-        <v>1016.8961571849836</v>
+        <v>1495.3978169480858</v>
       </c>
       <c r="E7" s="47">
         <f ca="1">D7*(1+DATOS!$B$24)</f>
-        <v>1038.7789250831156</v>
+        <v>1608.6403425894785</v>
       </c>
       <c r="F7" s="47">
         <f ca="1">E7*(1+DATOS!$B$24)</f>
-        <v>1061.1325921261603</v>
+        <v>1730.4584254961701</v>
       </c>
       <c r="G7" s="47">
         <f ca="1">F7*(1+DATOS!$B$24)</f>
-        <v>1083.9672916759353</v>
+        <v>1861.5014699621211</v>
       </c>
       <c r="H7" s="47">
         <f ca="1">G7*(1+DATOS!$B$24)</f>
-        <v>1107.2933751558596</v>
+        <v>2002.4680579526621</v>
       </c>
       <c r="I7" s="47">
         <f ca="1">H7*(1+DATOS!$B$24)</f>
-        <v>1131.12141674346</v>
+        <v>2154.1096731996145</v>
       </c>
       <c r="J7" s="47">
         <f ca="1">I7*(1+DATOS!$B$24)</f>
-        <v>1155.4622181638558</v>
+        <v>2317.2347073122914</v>
       </c>
       <c r="K7" s="47">
         <f ca="1">J7*(1+DATOS!$B$24)</f>
-        <v>1180.3268135863959</v>
+        <v>2492.7127692607041</v>
       </c>
       <c r="L7" s="47">
         <f ca="1">K7*(1+DATOS!$B$24)</f>
-        <v>1205.7264746266669</v>
+        <v>2681.4793212045415</v>
       </c>
       <c r="M7" s="47">
         <f ca="1">L7*(1+DATOS!$B$24)</f>
-        <v>1231.6727154561408</v>
+        <v>2884.5406653812338</v>
       </c>
       <c r="N7" s="47">
         <f ca="1">M7*(1+DATOS!$B$24)</f>
-        <v>1258.1772980217781</v>
+        <v>3102.9793086378691</v>
       </c>
       <c r="O7" s="47">
         <f ca="1">N7*(1+DATOS!$B$24)</f>
-        <v>1285.2522373779518</v>
+        <v>3337.9597332049416</v>
       </c>
       <c r="P7" s="47">
         <f ca="1">O7*(1+DATOS!$B$24)</f>
-        <v>1312.9098071331105</v>
+        <v>3590.7346044755468</v>
       </c>
       <c r="Q7" s="47">
         <f ca="1">P7*(1+DATOS!$B$24)</f>
-        <v>1341.1625450136498</v>
+        <v>3862.6514488832941</v>
       </c>
       <c r="R7" s="47">
         <f ca="1">Q7*(1+DATOS!$B$24)</f>
-        <v>1370.0232585475126</v>
+        <v>4155.1598374782698</v>
       </c>
       <c r="S7" s="47">
         <f ca="1">R7*(1+DATOS!$B$24)</f>
-        <v>1399.5050308700959</v>
+        <v>4469.8191134962262</v>
       </c>
       <c r="T7" s="47">
         <f ca="1">S7*(1+DATOS!$B$24)</f>
-        <v>1429.621226655097</v>
+        <v>4808.3067051161725</v>
       </c>
       <c r="U7" s="47">
         <f ca="1">T7*(1+DATOS!$B$24)</f>
-        <v>1460.3854981729853</v>
+        <v>5172.4270677211298</v>
       </c>
       <c r="V7" s="47">
         <f ca="1">U7*(1+DATOS!$B$24)</f>
-        <v>1491.8117914798484</v>
+        <v>5564.1213033326676</v>
       </c>
       <c r="W7" s="47">
         <f ca="1">AVERAGE(C7:V7)</f>
-        <v>1227.8350520806248</v>
+        <v>3034.1414765835134</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -7239,87 +7240,87 @@
       </c>
       <c r="C8" s="54">
         <f ca="1">C6*C7</f>
-        <v>129411.66790992624</v>
+        <v>134842.33452167403</v>
       </c>
       <c r="D8" s="54">
         <f t="shared" ref="D8:V8" ca="1" si="2">D6*D7</f>
-        <v>108807.88881879325</v>
+        <v>192906.31838630309</v>
       </c>
       <c r="E8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>134002.48133572191</v>
+        <v>189819.56042555845</v>
       </c>
       <c r="F8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>148558.56289766243</v>
+        <v>230150.97059099062</v>
       </c>
       <c r="G8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>93221.187084130434</v>
+        <v>255025.70138481059</v>
       </c>
       <c r="H8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>130660.61826839144</v>
+        <v>214264.08220093485</v>
       </c>
       <c r="I8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>145914.66275990635</v>
+        <v>234797.95437875798</v>
       </c>
       <c r="J8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>147899.16392497355</v>
+        <v>294288.807828661</v>
       </c>
       <c r="K8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>132196.60312167634</v>
+        <v>366428.7770813235</v>
       </c>
       <c r="L8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>129012.73278505336</v>
+        <v>308370.12193852226</v>
       </c>
       <c r="M8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>144105.70770836849</v>
+        <v>291338.60720350459</v>
       </c>
       <c r="N8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>129592.26169624315</v>
+        <v>366151.55841926852</v>
       </c>
       <c r="O8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>151659.7640105983</v>
+        <v>410569.04718420783</v>
       </c>
       <c r="P8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>177242.82396296991</v>
+        <v>438069.62174601672</v>
       </c>
       <c r="Q8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>138139.74213640593</v>
+        <v>328325.37315508001</v>
       </c>
       <c r="R8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>163032.767767154</v>
+        <v>511084.66000982717</v>
       </c>
       <c r="S8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>163742.08861180121</v>
+        <v>491680.1024845849</v>
       </c>
       <c r="T8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>171554.54719861163</v>
+        <v>596230.03143440536</v>
       </c>
       <c r="U8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>157721.63380268242</v>
+        <v>600001.53985565109</v>
       </c>
       <c r="V8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>164099.29706278333</v>
+        <v>573104.49424326478</v>
       </c>
       <c r="W8" s="54">
         <f ca="1">SUM(C8:V8)</f>
-        <v>2860576.2028638544</v>
+        <v>7027449.6644733483</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -8101,87 +8102,87 @@
       </c>
       <c r="C20" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,C8*DATOS!$L$4)</f>
-        <v>7117.6417350459433</v>
+        <v>7416.3283986920715</v>
       </c>
       <c r="D20" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,D8*DATOS!$L$4)</f>
-        <v>5984.4338850336289</v>
+        <v>10609.847511246669</v>
       </c>
       <c r="E20" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,E8*DATOS!$L$4)</f>
-        <v>7370.136473464705</v>
+        <v>10440.075823405714</v>
       </c>
       <c r="F20" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,F8*DATOS!$L$4)</f>
-        <v>8170.7209593714333</v>
+        <v>12658.303382504484</v>
       </c>
       <c r="G20" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,G8*DATOS!$L$4)</f>
-        <v>5127.1652896271735</v>
+        <v>14026.413576164583</v>
       </c>
       <c r="H20" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,H8*DATOS!$L$4)</f>
-        <v>7186.3340047615293</v>
+        <v>11784.524521051417</v>
       </c>
       <c r="I20" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,I8*DATOS!$L$4)</f>
-        <v>8025.3064517948496</v>
+        <v>12913.887490831688</v>
       </c>
       <c r="J20" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,J8*DATOS!$L$4)</f>
-        <v>8134.4540158735454</v>
+        <v>16185.884430576354</v>
       </c>
       <c r="K20" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,K8*DATOS!$L$4)</f>
-        <v>7270.8131716921989</v>
+        <v>20153.582739472793</v>
       </c>
       <c r="L20" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,L8*DATOS!$L$4)</f>
-        <v>7095.700303177935</v>
+        <v>16960.356706618724</v>
       </c>
       <c r="M20" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,M8*DATOS!$L$4)</f>
-        <v>7925.8139239602669</v>
+        <v>16023.623396192752</v>
       </c>
       <c r="N20" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,N8*DATOS!$L$4)</f>
-        <v>7127.5743932933729</v>
+        <v>20138.335713059769</v>
       </c>
       <c r="O20" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,O8*DATOS!$L$4)</f>
-        <v>8341.2870205829058</v>
+        <v>22581.297595131429</v>
       </c>
       <c r="P20" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,P8*DATOS!$L$4)</f>
-        <v>9748.3553179633454</v>
+        <v>24093.829196030922</v>
       </c>
       <c r="Q20" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,Q8*DATOS!$L$4)</f>
-        <v>7597.6858175023262</v>
+        <v>18057.895523529402</v>
       </c>
       <c r="R20" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,R8*DATOS!$L$4)</f>
-        <v>8966.8022271934697</v>
+        <v>28109.656300540493</v>
       </c>
       <c r="S20" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,S8*DATOS!$L$4)</f>
-        <v>9005.8148736490675</v>
+        <v>27042.405636652169</v>
       </c>
       <c r="T20" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,T8*DATOS!$L$4)</f>
-        <v>9435.5000959236404</v>
+        <v>32792.651728892299</v>
       </c>
       <c r="U20" s="75">
         <f ca="1">IF(DATOS!$G$4="Si",0,U8*DATOS!$L$4)</f>
-        <v>8674.6898591475328</v>
+        <v>33000.084692060809</v>
       </c>
       <c r="V20" s="77">
         <f ca="1">IF(DATOS!$G$4="Si",0,V8*DATOS!$L$4)</f>
-        <v>9025.461338453084</v>
+        <v>31520.747183379564</v>
       </c>
       <c r="W20" s="47">
         <f t="shared" ca="1" si="3"/>
-        <v>157331.69115751196</v>
+        <v>386509.73154603411</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -8191,87 +8192,87 @@
       </c>
       <c r="C21" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,C8*DATOS!$L$6)</f>
-        <v>5176.4667163970498</v>
+        <v>5393.693380866961</v>
       </c>
       <c r="D21" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,D8*DATOS!$L$6)</f>
-        <v>4352.3155527517301</v>
+        <v>7716.2527354521235</v>
       </c>
       <c r="E21" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,E8*DATOS!$L$6)</f>
-        <v>5360.0992534288762</v>
+        <v>7592.7824170223384</v>
       </c>
       <c r="F21" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,F8*DATOS!$L$6)</f>
-        <v>5942.3425159064973</v>
+        <v>9206.0388236396248</v>
       </c>
       <c r="G21" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,G8*DATOS!$L$6)</f>
-        <v>3728.8474833652176</v>
+        <v>10201.028055392424</v>
       </c>
       <c r="H21" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,H8*DATOS!$L$6)</f>
-        <v>5226.4247307356572</v>
+        <v>8570.5632880373942</v>
       </c>
       <c r="I21" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,I8*DATOS!$L$6)</f>
-        <v>5836.5865103962542</v>
+        <v>9391.9181751503183</v>
       </c>
       <c r="J21" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,J8*DATOS!$L$6)</f>
-        <v>5915.966556998942</v>
+        <v>11771.55231314644</v>
       </c>
       <c r="K21" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,K8*DATOS!$L$6)</f>
-        <v>5287.8641248670538</v>
+        <v>14657.15108325294</v>
       </c>
       <c r="L21" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,L8*DATOS!$L$6)</f>
-        <v>5160.5093114021347</v>
+        <v>12334.804877540892</v>
       </c>
       <c r="M21" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,M8*DATOS!$L$6)</f>
-        <v>5764.2283083347393</v>
+        <v>11653.544288140183</v>
       </c>
       <c r="N21" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,N8*DATOS!$L$6)</f>
-        <v>5183.6904678497258</v>
+        <v>14646.062336770741</v>
       </c>
       <c r="O21" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,O8*DATOS!$L$6)</f>
-        <v>6066.3905604239326</v>
+        <v>16422.761887368313</v>
       </c>
       <c r="P21" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,P8*DATOS!$L$6)</f>
-        <v>7089.7129585187968</v>
+        <v>17522.784869840671</v>
       </c>
       <c r="Q21" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,Q8*DATOS!$L$6)</f>
-        <v>5525.589685456237</v>
+        <v>13133.014926203201</v>
       </c>
       <c r="R21" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,R8*DATOS!$L$6)</f>
-        <v>6521.3107106861598</v>
+        <v>20443.386400393087</v>
       </c>
       <c r="S21" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,S8*DATOS!$L$6)</f>
-        <v>6549.6835444720491</v>
+        <v>19667.204099383398</v>
       </c>
       <c r="T21" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,T8*DATOS!$L$6)</f>
-        <v>6862.1818879444654</v>
+        <v>23849.201257376215</v>
       </c>
       <c r="U21" s="4">
         <f ca="1">IF(DATOS!$G$4="Si",0,U8*DATOS!$L$6)</f>
-        <v>6308.8653521072974</v>
+        <v>24000.061594226045</v>
       </c>
       <c r="V21" s="78">
         <f ca="1">IF(DATOS!$G$4="Si",0,V8*DATOS!$L$6)</f>
-        <v>6563.9718825113332</v>
+        <v>22924.179769730592</v>
       </c>
       <c r="W21" s="47">
         <f t="shared" ca="1" si="3"/>
-        <v>114423.04811455414</v>
+        <v>281097.98657893389</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -8281,87 +8282,87 @@
       </c>
       <c r="C22" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,C8*DATOS!$L$7)</f>
-        <v>10352.9334327941</v>
+        <v>10787.386761733922</v>
       </c>
       <c r="D22" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,D8*DATOS!$L$7)</f>
-        <v>8704.6311055034603</v>
+        <v>15432.505470904247</v>
       </c>
       <c r="E22" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,E8*DATOS!$L$7)</f>
-        <v>10720.198506857752</v>
+        <v>15185.564834044677</v>
       </c>
       <c r="F22" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,F8*DATOS!$L$7)</f>
-        <v>11884.685031812995</v>
+        <v>18412.07764727925</v>
       </c>
       <c r="G22" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,G8*DATOS!$L$7)</f>
-        <v>7457.6949667304352</v>
+        <v>20402.056110784848</v>
       </c>
       <c r="H22" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,H8*DATOS!$L$7)</f>
-        <v>10452.849461471314</v>
+        <v>17141.126576074788</v>
       </c>
       <c r="I22" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,I8*DATOS!$L$7)</f>
-        <v>11673.173020792508</v>
+        <v>18783.836350300637</v>
       </c>
       <c r="J22" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,J8*DATOS!$L$7)</f>
-        <v>11831.933113997884</v>
+        <v>23543.104626292879</v>
       </c>
       <c r="K22" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,K8*DATOS!$L$7)</f>
-        <v>10575.728249734108</v>
+        <v>29314.30216650588</v>
       </c>
       <c r="L22" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,L8*DATOS!$L$7)</f>
-        <v>10321.018622804269</v>
+        <v>24669.609755081783</v>
       </c>
       <c r="M22" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,M8*DATOS!$L$7)</f>
-        <v>11528.456616669479</v>
+        <v>23307.088576280366</v>
       </c>
       <c r="N22" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,N8*DATOS!$L$7)</f>
-        <v>10367.380935699452</v>
+        <v>29292.124673541482</v>
       </c>
       <c r="O22" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,O8*DATOS!$L$7)</f>
-        <v>12132.781120847865</v>
+        <v>32845.523774736626</v>
       </c>
       <c r="P22" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,P8*DATOS!$L$7)</f>
-        <v>14179.425917037594</v>
+        <v>35045.569739681341</v>
       </c>
       <c r="Q22" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,Q8*DATOS!$L$7)</f>
-        <v>11051.179370912474</v>
+        <v>26266.029852406402</v>
       </c>
       <c r="R22" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,R8*DATOS!$L$7)</f>
-        <v>13042.62142137232</v>
+        <v>40886.772800786173</v>
       </c>
       <c r="S22" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,S8*DATOS!$L$7)</f>
-        <v>13099.367088944098</v>
+        <v>39334.408198766796</v>
       </c>
       <c r="T22" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,T8*DATOS!$L$7)</f>
-        <v>13724.363775888931</v>
+        <v>47698.40251475243</v>
       </c>
       <c r="U22" s="46">
         <f ca="1">IF(DATOS!$G$4="Si",0,U8*DATOS!$L$7)</f>
-        <v>12617.730704214595</v>
+        <v>48000.123188452089</v>
       </c>
       <c r="V22" s="79">
         <f ca="1">IF(DATOS!$G$4="Si",0,V8*DATOS!$L$7)</f>
-        <v>13127.943765022666</v>
+        <v>45848.359539461184</v>
       </c>
       <c r="W22" s="47">
         <f t="shared" ca="1" si="3"/>
-        <v>228846.09622910828</v>
+        <v>562195.97315786779</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -8373,87 +8374,87 @@
       </c>
       <c r="C23" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,C8*DATOS!$L$11)</f>
-        <v>25882.333581985251</v>
+        <v>26968.466904334808</v>
       </c>
       <c r="D23" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,D8*DATOS!$L$11)</f>
-        <v>21761.577763758651</v>
+        <v>38581.26367726062</v>
       </c>
       <c r="E23" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,E8*DATOS!$L$11)</f>
-        <v>26800.496267144383</v>
+        <v>37963.91208511169</v>
       </c>
       <c r="F23" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,F8*DATOS!$L$11)</f>
-        <v>29711.712579532486</v>
+        <v>46030.194118198124</v>
       </c>
       <c r="G23" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,G8*DATOS!$L$11)</f>
-        <v>18644.237416826087</v>
+        <v>51005.14027696212</v>
       </c>
       <c r="H23" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,H8*DATOS!$L$11)</f>
-        <v>26132.123653678289</v>
+        <v>42852.816440186973</v>
       </c>
       <c r="I23" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,I8*DATOS!$L$11)</f>
-        <v>29182.93255198127</v>
+        <v>46959.590875751601</v>
       </c>
       <c r="J23" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,J8*DATOS!$L$11)</f>
-        <v>29579.832784994709</v>
+        <v>58857.761565732202</v>
       </c>
       <c r="K23" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,K8*DATOS!$L$11)</f>
-        <v>26439.320624335269</v>
+        <v>73285.755416264699</v>
       </c>
       <c r="L23" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,L8*DATOS!$L$11)</f>
-        <v>25802.546557010675</v>
+        <v>61674.024387704456</v>
       </c>
       <c r="M23" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,M8*DATOS!$L$11)</f>
-        <v>28821.1415416737</v>
+        <v>58267.721440700923</v>
       </c>
       <c r="N23" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,N8*DATOS!$L$11)</f>
-        <v>25918.45233924863</v>
+        <v>73230.31168385371</v>
       </c>
       <c r="O23" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,O8*DATOS!$L$11)</f>
-        <v>30331.95280211966</v>
+        <v>82113.809436841577</v>
       </c>
       <c r="P23" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,P8*DATOS!$L$11)</f>
-        <v>35448.564792593985</v>
+        <v>87613.924349203357</v>
       </c>
       <c r="Q23" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,Q8*DATOS!$L$11)</f>
-        <v>27627.948427281186</v>
+        <v>65665.074631016003</v>
       </c>
       <c r="R23" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,R8*DATOS!$L$11)</f>
-        <v>32606.5535534308</v>
+        <v>102216.93200196544</v>
       </c>
       <c r="S23" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,S8*DATOS!$L$11)</f>
-        <v>32748.417722360246</v>
+        <v>98336.020496916986</v>
       </c>
       <c r="T23" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,T8*DATOS!$L$11)</f>
-        <v>34310.909439722331</v>
+        <v>119246.00628688108</v>
       </c>
       <c r="U23" s="47">
         <f ca="1">IF(DATOS!$G$4="Si",0,U8*DATOS!$L$11)</f>
-        <v>31544.326760536485</v>
+        <v>120000.30797113023</v>
       </c>
       <c r="V23" s="76">
         <f ca="1">IF(DATOS!$G$4="Si",0,V8*DATOS!$L$11)</f>
-        <v>32819.859412556667</v>
+        <v>114620.89884865296</v>
       </c>
       <c r="W23" s="47">
         <f t="shared" ca="1" si="3"/>
-        <v>572115.24057277071</v>
+        <v>1405489.9328946695</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -8554,87 +8555,87 @@
       </c>
       <c r="C25" s="82">
         <f ca="1">SUM(C11:C24)</f>
-        <v>272254.06546622235</v>
+        <v>274290.56544562773</v>
       </c>
       <c r="D25" s="82">
         <f t="shared" ref="D25:V25" ca="1" si="4">SUM(D11:D24)</f>
-        <v>73427.648307047464</v>
+        <v>104964.55939486367</v>
       </c>
       <c r="E25" s="82">
         <f t="shared" ca="1" si="4"/>
-        <v>82875.620500895719</v>
+        <v>103807.02515958442</v>
       </c>
       <c r="F25" s="82">
         <f t="shared" ca="1" si="4"/>
-        <v>88334.151086623417</v>
+        <v>118931.30397162148</v>
       </c>
       <c r="G25" s="82">
         <f t="shared" ca="1" si="4"/>
-        <v>67582.635156548902</v>
+        <v>128259.32801930398</v>
       </c>
       <c r="H25" s="82">
         <f t="shared" ca="1" si="4"/>
-        <v>81622.421850646788</v>
+        <v>112973.72082535058</v>
       </c>
       <c r="I25" s="82">
         <f t="shared" ca="1" si="4"/>
-        <v>87342.688534964895</v>
+        <v>120673.92289203424</v>
       </c>
       <c r="J25" s="82">
         <f t="shared" ca="1" si="4"/>
-        <v>88086.876471865078</v>
+        <v>142982.9929357479</v>
       </c>
       <c r="K25" s="82">
         <f t="shared" ca="1" si="4"/>
-        <v>82198.416170628625</v>
+        <v>170035.48140549631</v>
       </c>
       <c r="L25" s="82">
         <f t="shared" ca="1" si="4"/>
-        <v>81004.464794395011</v>
+        <v>148263.48572694586</v>
       </c>
       <c r="M25" s="82">
         <f t="shared" ca="1" si="4"/>
-        <v>86664.330390638177</v>
+        <v>141876.66770131423</v>
       </c>
       <c r="N25" s="82">
         <f t="shared" ca="1" si="4"/>
-        <v>81221.788136091171</v>
+        <v>169931.52440722572</v>
       </c>
       <c r="O25" s="82">
         <f t="shared" ca="1" si="4"/>
-        <v>89497.10150397438</v>
+        <v>186588.08269407795</v>
       </c>
       <c r="P25" s="82">
         <f t="shared" ca="1" si="4"/>
-        <v>99090.748986113729</v>
+        <v>196900.79815475628</v>
       </c>
       <c r="Q25" s="82">
         <f t="shared" ca="1" si="4"/>
-        <v>84427.093301152228</v>
+        <v>155746.70493315501</v>
       </c>
       <c r="R25" s="82">
         <f t="shared" ca="1" si="4"/>
-        <v>93761.977912682749</v>
+        <v>224281.43750368519</v>
       </c>
       <c r="S25" s="82">
         <f t="shared" ca="1" si="4"/>
-        <v>94027.973229425465</v>
+        <v>217004.72843171936</v>
       </c>
       <c r="T25" s="82">
         <f t="shared" ca="1" si="4"/>
-        <v>96957.645199479375</v>
+        <v>256210.95178790201</v>
       </c>
       <c r="U25" s="82">
         <f t="shared" ca="1" si="4"/>
-        <v>91770.302676005915</v>
+        <v>257625.26744586916</v>
       </c>
       <c r="V25" s="82">
         <f t="shared" ca="1" si="4"/>
-        <v>94161.926398543757</v>
+        <v>247538.87534122431</v>
       </c>
       <c r="W25" s="54">
         <f ca="1">SUMPRODUCT(W12:W19,X12:X19)+W20+W21+W22+W23+W24</f>
-        <v>1725209.8760739451</v>
+        <v>3287787.4241775051</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -8643,87 +8644,87 @@
       </c>
       <c r="C27" s="54">
         <f ca="1">C8-C25</f>
-        <v>-142842.39755629611</v>
+        <v>-139448.2309239537</v>
       </c>
       <c r="D27" s="54">
         <f t="shared" ref="D27:V27" ca="1" si="5">D8-D25</f>
-        <v>35380.240511745782</v>
+        <v>87941.758991439419</v>
       </c>
       <c r="E27" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>51126.860834826191</v>
+        <v>86012.535265974031</v>
       </c>
       <c r="F27" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>60224.411811039012</v>
+        <v>111219.66661936913</v>
       </c>
       <c r="G27" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>25638.551927581531</v>
+        <v>126766.3733655066</v>
       </c>
       <c r="H27" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>49038.19641774465</v>
+        <v>101290.36137558427</v>
       </c>
       <c r="I27" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>58571.974224941456</v>
+        <v>114124.03148672373</v>
       </c>
       <c r="J27" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>59812.287453108467</v>
+        <v>151305.8148929131</v>
       </c>
       <c r="K27" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>49998.186951047712</v>
+        <v>196393.29567582719</v>
       </c>
       <c r="L27" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>48008.267990658351</v>
+        <v>160106.63621157641</v>
       </c>
       <c r="M27" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>57441.377317730308</v>
+        <v>149461.93950219036</v>
       </c>
       <c r="N27" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>48370.473560151979</v>
+        <v>196220.0340120428</v>
       </c>
       <c r="O27" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>62162.662506623921</v>
+        <v>223980.96449012987</v>
       </c>
       <c r="P27" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>78152.07497685618</v>
+        <v>241168.82359126044</v>
       </c>
       <c r="Q27" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>53712.648835253698</v>
+        <v>172578.66822192501</v>
       </c>
       <c r="R27" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>69270.789854471252</v>
+        <v>286803.22250614199</v>
       </c>
       <c r="S27" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>69714.115382375749</v>
+        <v>274675.37405286555</v>
       </c>
       <c r="T27" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>74596.901999132257</v>
+        <v>340019.07964650332</v>
       </c>
       <c r="U27" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>65951.331126676509</v>
+        <v>342376.27240978193</v>
       </c>
       <c r="V27" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>69937.37066423957</v>
+        <v>325565.61890204047</v>
       </c>
       <c r="W27" s="54">
         <f ca="1">SUM(C27:V27)</f>
-        <v>944266.32678990834</v>
+        <v>3548562.2402958423</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="16.2" thickBot="1"/>
@@ -8733,87 +8734,87 @@
       </c>
       <c r="C29" s="47">
         <f ca="1">C27/(1+(DATOS!$B$23/12))^C3</f>
-        <v>-142013.98265746093</v>
+        <v>-138639.50050434502</v>
       </c>
       <c r="D29" s="47">
         <f ca="1">D27/(1+(DATOS!$B$23/12))^D3</f>
-        <v>34971.054884146484</v>
+        <v>86924.679872569337</v>
       </c>
       <c r="E29" s="47">
         <f ca="1">E27/(1+(DATOS!$B$23/12))^E3</f>
-        <v>50242.478567311759</v>
+        <v>84524.707542325254</v>
       </c>
       <c r="F29" s="47">
         <f ca="1">F27/(1+(DATOS!$B$23/12))^F3</f>
-        <v>58839.431897209557</v>
+        <v>108661.9495797417</v>
       </c>
       <c r="G29" s="47">
         <f ca="1">G27/(1+(DATOS!$B$23/12))^G3</f>
-        <v>24903.671110675186</v>
+        <v>123132.85395777125</v>
       </c>
       <c r="H29" s="47">
         <f ca="1">H27/(1+(DATOS!$B$23/12))^H3</f>
-        <v>47356.363396902045</v>
+        <v>97816.467821193772</v>
       </c>
       <c r="I29" s="47">
         <f ca="1">I27/(1+(DATOS!$B$23/12))^I3</f>
-        <v>56235.128808055291</v>
+        <v>109570.82624709635</v>
       </c>
       <c r="J29" s="47">
         <f ca="1">J27/(1+(DATOS!$B$23/12))^J3</f>
-        <v>57092.915267159457</v>
+        <v>144426.67948257271</v>
       </c>
       <c r="K29" s="47">
         <f ca="1">K27/(1+(DATOS!$B$23/12))^K3</f>
-        <v>47448.232560406963</v>
+        <v>186377.05354506153</v>
       </c>
       <c r="L29" s="47">
         <f ca="1">L27/(1+(DATOS!$B$23/12))^L3</f>
-        <v>45295.577131927166</v>
+        <v>151059.86517293251</v>
       </c>
       <c r="M29" s="47">
         <f ca="1">M27/(1+(DATOS!$B$23/12))^M3</f>
-        <v>53881.363868082452</v>
+        <v>140198.81699913691</v>
       </c>
       <c r="N29" s="47">
         <f ca="1">N27/(1+(DATOS!$B$23/12))^N3</f>
-        <v>45109.503877465322</v>
+        <v>182991.55938788399</v>
       </c>
       <c r="O29" s="47">
         <f ca="1">O27/(1+(DATOS!$B$23/12))^O3</f>
-        <v>57635.663211405212</v>
+        <v>207669.53850702982</v>
       </c>
       <c r="P29" s="47">
         <f ca="1">P27/(1+(DATOS!$B$23/12))^P3</f>
-        <v>72040.41011872566</v>
+        <v>222308.8889771651</v>
       </c>
       <c r="Q29" s="47">
         <f ca="1">Q27/(1+(DATOS!$B$23/12))^Q3</f>
-        <v>49225.054920938681</v>
+        <v>158160.03503128275</v>
       </c>
       <c r="R29" s="47">
         <f ca="1">R27/(1+(DATOS!$B$23/12))^R3</f>
-        <v>63115.16979025922</v>
+        <v>261316.98689877481</v>
       </c>
       <c r="S29" s="47">
         <f ca="1">S27/(1+(DATOS!$B$23/12))^S3</f>
-        <v>63150.720813892505</v>
+        <v>248815.43380595188</v>
       </c>
       <c r="T29" s="47">
         <f ca="1">T27/(1+(DATOS!$B$23/12))^T3</f>
-        <v>67181.911850125602</v>
+        <v>306220.91834910173</v>
       </c>
       <c r="U29" s="47">
         <f ca="1">U27/(1+(DATOS!$B$23/12))^U3</f>
-        <v>59051.251819280842</v>
+        <v>306555.56352885946</v>
       </c>
       <c r="V29" s="47">
         <f ca="1">V27/(1+(DATOS!$B$23/12))^V3</f>
-        <v>62257.090367018915</v>
+        <v>289813.12800114485</v>
       </c>
       <c r="W29" s="103">
         <f ca="1">SUM(C29:V29)</f>
-        <v>873019.01160352747</v>
+        <v>3277906.4522032505</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -8822,83 +8823,83 @@
       </c>
       <c r="C31" s="104">
         <f ca="1">C29</f>
-        <v>-142013.98265746093</v>
+        <v>-138639.50050434502</v>
       </c>
       <c r="D31" s="104">
         <f ca="1">C31+D29</f>
-        <v>-107042.92777331444</v>
+        <v>-51714.820631775685</v>
       </c>
       <c r="E31" s="104">
         <f t="shared" ref="E31:V31" ca="1" si="6">D31+E29</f>
-        <v>-56800.449206002682</v>
+        <v>32809.886910549569</v>
       </c>
       <c r="F31" s="104">
         <f t="shared" ca="1" si="6"/>
-        <v>2038.9826912068747</v>
+        <v>141471.83649029129</v>
       </c>
       <c r="G31" s="104">
         <f t="shared" ca="1" si="6"/>
-        <v>26942.653801882061</v>
+        <v>264604.69044806255</v>
       </c>
       <c r="H31" s="104">
         <f t="shared" ca="1" si="6"/>
-        <v>74299.017198784102</v>
+        <v>362421.15826925635</v>
       </c>
       <c r="I31" s="104">
         <f t="shared" ca="1" si="6"/>
-        <v>130534.14600683939</v>
+        <v>471991.98451635271</v>
       </c>
       <c r="J31" s="104">
         <f t="shared" ca="1" si="6"/>
-        <v>187627.06127399884</v>
+        <v>616418.66399892536</v>
       </c>
       <c r="K31" s="104">
         <f t="shared" ca="1" si="6"/>
-        <v>235075.29383440581</v>
+        <v>802795.71754398686</v>
       </c>
       <c r="L31" s="104">
         <f t="shared" ca="1" si="6"/>
-        <v>280370.87096633296</v>
+        <v>953855.58271691937</v>
       </c>
       <c r="M31" s="104">
         <f t="shared" ca="1" si="6"/>
-        <v>334252.23483441543</v>
+        <v>1094054.3997160562</v>
       </c>
       <c r="N31" s="104">
         <f t="shared" ca="1" si="6"/>
-        <v>379361.73871188075</v>
+        <v>1277045.9591039401</v>
       </c>
       <c r="O31" s="104">
         <f t="shared" ca="1" si="6"/>
-        <v>436997.40192328597</v>
+        <v>1484715.4976109699</v>
       </c>
       <c r="P31" s="104">
         <f t="shared" ca="1" si="6"/>
-        <v>509037.81204201165</v>
+        <v>1707024.386588135</v>
       </c>
       <c r="Q31" s="104">
         <f t="shared" ca="1" si="6"/>
-        <v>558262.86696295033</v>
+        <v>1865184.4216194178</v>
       </c>
       <c r="R31" s="104">
         <f t="shared" ca="1" si="6"/>
-        <v>621378.03675320954</v>
+        <v>2126501.4085181928</v>
       </c>
       <c r="S31" s="104">
         <f t="shared" ca="1" si="6"/>
-        <v>684528.75756710209</v>
+        <v>2375316.8423241447</v>
       </c>
       <c r="T31" s="104">
         <f t="shared" ca="1" si="6"/>
-        <v>751710.66941722773</v>
+        <v>2681537.7606732463</v>
       </c>
       <c r="U31" s="104">
         <f t="shared" ca="1" si="6"/>
-        <v>810761.92123650853</v>
+        <v>2988093.3242021059</v>
       </c>
       <c r="V31" s="104">
         <f t="shared" ca="1" si="6"/>
-        <v>873019.01160352747</v>
+        <v>3277906.4522032505</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -8915,7 +8916,7 @@
       </c>
       <c r="E32" s="43">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="43">
         <f t="shared" ca="1" si="7"/>
@@ -8987,7 +8988,7 @@
       </c>
       <c r="W32" s="105">
         <f ca="1">SUM(C32:V32)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
